--- a/data/trans_orig/P34A-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P34A-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FBE8BD0-A956-400F-8502-EC7314F1FB83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{951DB643-4930-4528-887F-B4D3D98A6EF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{37CFB4B3-ECD4-4167-A93E-D2F8DD8AF05B}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AE58B3BD-0135-4325-949D-575A510D58DA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -80,7 +80,7 @@
     <t>0,36%</t>
   </si>
   <si>
-    <t>1,36%</t>
+    <t>1,34%</t>
   </si>
   <si>
     <t>0,29%</t>
@@ -89,6 +89,9 @@
     <t>0,07%</t>
   </si>
   <si>
+    <t>0,71%</t>
+  </si>
+  <si>
     <t>0,48%</t>
   </si>
   <si>
@@ -104,1648 +107,1645 @@
     <t>4,76%</t>
   </si>
   <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>Alguna actividad física o deportiva ocasional</t>
+  </si>
+  <si>
+    <t>44,91%</t>
+  </si>
+  <si>
+    <t>42,24%</t>
+  </si>
+  <si>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>42,38%</t>
+  </si>
+  <si>
+    <t>47,66%</t>
+  </si>
+  <si>
+    <t>44,96%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>47,1%</t>
+  </si>
+  <si>
+    <t>No hago ejercicio. Mi tiempo libre lo ocupo casi completamen</t>
+  </si>
+  <si>
+    <t>49,61%</t>
+  </si>
+  <si>
+    <t>46,43%</t>
+  </si>
+  <si>
+    <t>52,58%</t>
+  </si>
+  <si>
+    <t>52,01%</t>
+  </si>
+  <si>
+    <t>49,18%</t>
+  </si>
+  <si>
+    <t>54,8%</t>
+  </si>
+  <si>
+    <t>50,95%</t>
+  </si>
+  <si>
+    <t>48,85%</t>
+  </si>
+  <si>
+    <t>52,99%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>39,53%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>41,8%</t>
+  </si>
+  <si>
+    <t>47,22%</t>
+  </si>
+  <si>
+    <t>44,86%</t>
+  </si>
+  <si>
+    <t>49,82%</t>
+  </si>
+  <si>
+    <t>43,25%</t>
+  </si>
+  <si>
+    <t>41,48%</t>
+  </si>
+  <si>
+    <t>44,99%</t>
+  </si>
+  <si>
+    <t>40,52%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>45,86%</t>
+  </si>
+  <si>
+    <t>41,92%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>43,68%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>48,57%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>52,28%</t>
+  </si>
+  <si>
+    <t>45,91%</t>
+  </si>
+  <si>
+    <t>42,81%</t>
+  </si>
+  <si>
+    <t>49,06%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>38,88%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>43,69%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>42,04%</t>
+  </si>
+  <si>
+    <t>40,38%</t>
+  </si>
+  <si>
+    <t>43,91%</t>
+  </si>
+  <si>
+    <t>44,82%</t>
+  </si>
+  <si>
+    <t>48,41%</t>
+  </si>
+  <si>
+    <t>44,26%</t>
+  </si>
+  <si>
+    <t>43,06%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>46,13%</t>
+  </si>
+  <si>
+    <t>44,28%</t>
+  </si>
+  <si>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tipo de ejercicio físico que realizan en su tiempo libre en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>66,21%</t>
+  </si>
+  <si>
+    <t>62,95%</t>
+  </si>
+  <si>
+    <t>69,26%</t>
+  </si>
+  <si>
+    <t>59,66%</t>
+  </si>
+  <si>
+    <t>56,79%</t>
+  </si>
+  <si>
+    <t>62,4%</t>
+  </si>
+  <si>
+    <t>62,42%</t>
+  </si>
+  <si>
+    <t>60,46%</t>
+  </si>
+  <si>
+    <t>64,44%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>36,29%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>45,99%</t>
+  </si>
+  <si>
+    <t>43,66%</t>
+  </si>
+  <si>
+    <t>48,36%</t>
+  </si>
+  <si>
+    <t>60,42%</t>
+  </si>
+  <si>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>62,72%</t>
+  </si>
+  <si>
+    <t>52,81%</t>
+  </si>
+  <si>
+    <t>51,13%</t>
+  </si>
+  <si>
+    <t>54,63%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>45,41%</t>
+  </si>
+  <si>
+    <t>40,47%</t>
+  </si>
+  <si>
+    <t>50,14%</t>
+  </si>
+  <si>
+    <t>63,65%</t>
+  </si>
+  <si>
+    <t>58,84%</t>
+  </si>
+  <si>
+    <t>68,4%</t>
+  </si>
+  <si>
+    <t>54,31%</t>
+  </si>
+  <si>
+    <t>50,71%</t>
+  </si>
+  <si>
+    <t>57,73%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>51,67%</t>
+  </si>
+  <si>
+    <t>49,79%</t>
+  </si>
+  <si>
+    <t>53,35%</t>
+  </si>
+  <si>
+    <t>60,55%</t>
+  </si>
+  <si>
+    <t>58,98%</t>
+  </si>
+  <si>
+    <t>62,14%</t>
+  </si>
+  <si>
+    <t>56,2%</t>
+  </si>
+  <si>
+    <t>54,88%</t>
+  </si>
+  <si>
+    <t>57,26%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>Población según el tipo de ejercicio físico que realizan en su tiempo libre en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>43,14%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>46,64%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>36,64%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>38,78%</t>
+  </si>
+  <si>
+    <t>47,03%</t>
+  </si>
+  <si>
+    <t>43,26%</t>
+  </si>
+  <si>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>56,39%</t>
+  </si>
+  <si>
+    <t>53,36%</t>
+  </si>
+  <si>
+    <t>59,8%</t>
+  </si>
+  <si>
+    <t>52,35%</t>
+  </si>
+  <si>
+    <t>50,02%</t>
+  </si>
+  <si>
+    <t>54,78%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>43,82%</t>
+  </si>
+  <si>
+    <t>47,09%</t>
+  </si>
+  <si>
+    <t>49,31%</t>
+  </si>
+  <si>
+    <t>44,31%</t>
+  </si>
+  <si>
+    <t>45,81%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>39,86%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>42,16%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>39,69%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>44,16%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
+  </si>
+  <si>
+    <t>45,9%</t>
+  </si>
+  <si>
+    <t>54,97%</t>
+  </si>
+  <si>
+    <t>45,0%</t>
+  </si>
+  <si>
+    <t>41,98%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>41,66%</t>
+  </si>
+  <si>
+    <t>39,68%</t>
+  </si>
+  <si>
+    <t>45,49%</t>
+  </si>
+  <si>
+    <t>43,85%</t>
+  </si>
+  <si>
+    <t>47,24%</t>
+  </si>
+  <si>
+    <t>43,62%</t>
+  </si>
+  <si>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>44,78%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>42,73%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>44,36%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>Población según el tipo de ejercicio físico que realizan en su tiempo libre en 2023 (Tasa respuesta: 99,71%)</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
     <t>3,55%</t>
   </si>
   <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>Alguna actividad física o deportiva ocasional</t>
-  </si>
-  <si>
-    <t>44,91%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>47,92%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>42,25%</t>
-  </si>
-  <si>
-    <t>47,6%</t>
-  </si>
-  <si>
-    <t>44,96%</t>
-  </si>
-  <si>
-    <t>42,95%</t>
-  </si>
-  <si>
-    <t>46,99%</t>
-  </si>
-  <si>
-    <t>No hago ejercicio. Mi tiempo libre lo ocupo casi completamen</t>
-  </si>
-  <si>
-    <t>49,61%</t>
-  </si>
-  <si>
-    <t>46,62%</t>
-  </si>
-  <si>
-    <t>52,74%</t>
-  </si>
-  <si>
-    <t>52,01%</t>
-  </si>
-  <si>
-    <t>49,54%</t>
-  </si>
-  <si>
-    <t>55,0%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>49,01%</t>
-  </si>
-  <si>
-    <t>52,98%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>39,53%</t>
-  </si>
-  <si>
-    <t>37,24%</t>
-  </si>
-  <si>
-    <t>42,08%</t>
-  </si>
-  <si>
-    <t>47,22%</t>
-  </si>
-  <si>
-    <t>44,48%</t>
-  </si>
-  <si>
-    <t>49,86%</t>
-  </si>
-  <si>
-    <t>43,25%</t>
-  </si>
-  <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>40,52%</t>
-  </si>
-  <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>42,94%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
-  </si>
-  <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>41,92%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>43,65%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>44,34%</t>
-  </si>
-  <si>
-    <t>39,86%</t>
-  </si>
-  <si>
-    <t>48,77%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>52,52%</t>
-  </si>
-  <si>
-    <t>45,91%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>38,88%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>42,05%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>46,39%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>37,45%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>50,79%</t>
+  </si>
+  <si>
+    <t>46,46%</t>
+  </si>
+  <si>
+    <t>54,65%</t>
+  </si>
+  <si>
+    <t>60,9%</t>
+  </si>
+  <si>
+    <t>58,2%</t>
+  </si>
+  <si>
+    <t>63,8%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>54,45%</t>
+  </si>
+  <si>
+    <t>59,19%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>42,87%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>47,98%</t>
+  </si>
+  <si>
+    <t>52,47%</t>
+  </si>
+  <si>
+    <t>49,3%</t>
+  </si>
+  <si>
+    <t>59,96%</t>
+  </si>
+  <si>
+    <t>47,77%</t>
+  </si>
+  <si>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>52,0%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>46,2%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>51,8%</t>
+  </si>
+  <si>
+    <t>45,19%</t>
+  </si>
+  <si>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>40,55%</t>
+  </si>
+  <si>
+    <t>45,7%</t>
+  </si>
+  <si>
+    <t>45,58%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
+  </si>
+  <si>
+    <t>45,34%</t>
   </si>
   <si>
     <t>43,78%</t>
   </si>
   <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>42,04%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>46,43%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>48,12%</t>
-  </si>
-  <si>
-    <t>44,26%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>42,67%</t>
-  </si>
-  <si>
-    <t>46,13%</t>
-  </si>
-  <si>
-    <t>44,36%</t>
-  </si>
-  <si>
-    <t>47,95%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>44,95%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tipo de ejercicio físico que realizan en su tiempo libre en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>66,21%</t>
-  </si>
-  <si>
-    <t>63,11%</t>
-  </si>
-  <si>
-    <t>69,2%</t>
-  </si>
-  <si>
-    <t>59,66%</t>
-  </si>
-  <si>
-    <t>56,8%</t>
-  </si>
-  <si>
-    <t>62,41%</t>
-  </si>
-  <si>
-    <t>62,42%</t>
-  </si>
-  <si>
-    <t>60,08%</t>
-  </si>
-  <si>
-    <t>64,42%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>45,99%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
-  </si>
-  <si>
-    <t>48,29%</t>
-  </si>
-  <si>
-    <t>60,42%</t>
-  </si>
-  <si>
-    <t>57,9%</t>
-  </si>
-  <si>
-    <t>62,72%</t>
-  </si>
-  <si>
-    <t>52,81%</t>
-  </si>
-  <si>
-    <t>51,05%</t>
-  </si>
-  <si>
-    <t>54,52%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>45,41%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>50,0%</t>
-  </si>
-  <si>
-    <t>63,65%</t>
-  </si>
-  <si>
-    <t>58,6%</t>
-  </si>
-  <si>
-    <t>68,58%</t>
-  </si>
-  <si>
-    <t>54,31%</t>
-  </si>
-  <si>
-    <t>50,78%</t>
-  </si>
-  <si>
-    <t>57,42%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>51,67%</t>
-  </si>
-  <si>
-    <t>50,04%</t>
-  </si>
-  <si>
-    <t>53,5%</t>
-  </si>
-  <si>
-    <t>60,55%</t>
-  </si>
-  <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>62,47%</t>
-  </si>
-  <si>
-    <t>56,2%</t>
-  </si>
-  <si>
-    <t>54,97%</t>
-  </si>
-  <si>
-    <t>57,46%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>Población según el tipo de ejercicio físico que realizan en su tiempo libre en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>43,14%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>46,51%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>42,97%</t>
-  </si>
-  <si>
-    <t>41,15%</t>
-  </si>
-  <si>
-    <t>38,7%</t>
-  </si>
-  <si>
-    <t>43,52%</t>
-  </si>
-  <si>
-    <t>47,03%</t>
-  </si>
-  <si>
-    <t>50,66%</t>
-  </si>
-  <si>
-    <t>56,39%</t>
-  </si>
-  <si>
-    <t>52,99%</t>
-  </si>
-  <si>
-    <t>59,38%</t>
-  </si>
-  <si>
-    <t>52,35%</t>
-  </si>
-  <si>
-    <t>49,87%</t>
-  </si>
-  <si>
-    <t>54,8%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>39,56%</t>
-  </si>
-  <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>47,09%</t>
-  </si>
-  <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>49,38%</t>
-  </si>
-  <si>
-    <t>44,31%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>45,81%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>35,84%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>43,89%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>46,28%</t>
-  </si>
-  <si>
-    <t>54,67%</t>
-  </si>
-  <si>
-    <t>45,0%</t>
-  </si>
-  <si>
-    <t>41,7%</t>
-  </si>
-  <si>
-    <t>48,02%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>41,66%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>43,46%</t>
-  </si>
-  <si>
-    <t>45,49%</t>
-  </si>
-  <si>
-    <t>43,72%</t>
-  </si>
-  <si>
-    <t>47,23%</t>
-  </si>
-  <si>
-    <t>43,62%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>44,84%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>42,73%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
-  </si>
-  <si>
-    <t>44,52%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>39,65%</t>
-  </si>
-  <si>
-    <t>Población según el tipo de ejercicio físico que realizan en su tiempo libre en 2023 (Tasa respuesta: 99,71%)</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>42,05%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>45,68%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>40,1%</t>
-  </si>
-  <si>
-    <t>50,79%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>54,76%</t>
-  </si>
-  <si>
-    <t>60,9%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>63,8%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>59,27%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>42,87%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>47,05%</t>
-  </si>
-  <si>
-    <t>52,47%</t>
-  </si>
-  <si>
-    <t>49,27%</t>
-  </si>
-  <si>
-    <t>59,84%</t>
-  </si>
-  <si>
-    <t>47,77%</t>
-  </si>
-  <si>
-    <t>45,34%</t>
-  </si>
-  <si>
-    <t>52,15%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>46,7%</t>
-  </si>
-  <si>
-    <t>44,59%</t>
-  </si>
-  <si>
-    <t>51,16%</t>
-  </si>
-  <si>
-    <t>45,19%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>45,9%</t>
-  </si>
-  <si>
-    <t>45,55%</t>
-  </si>
-  <si>
-    <t>54,27%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>48,75%</t>
+    <t>48,04%</t>
   </si>
   <si>
     <t>32,55%</t>
   </si>
   <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
   </si>
   <si>
     <t>39,04%</t>
   </si>
   <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>40,85%</t>
   </si>
   <si>
     <t>35,99%</t>
   </si>
   <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
   </si>
 </sst>
 </file>
@@ -2157,7 +2157,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96BBA651-1896-48D7-A399-A0AA721B642F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2E34D9A-118C-48AF-82B4-9458D086CD1B}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2302,7 +2302,7 @@
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
         <v>12</v>
@@ -2311,19 +2311,19 @@
         <v>11000</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>50</v>
@@ -2332,13 +2332,13 @@
         <v>48345</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>35</v>
@@ -2347,13 +2347,13 @@
         <v>34856</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M5" s="7">
         <v>85</v>
@@ -2580,7 +2580,7 @@
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7">
         <v>234</v>
@@ -2652,7 +2652,7 @@
         <v>727</v>
       </c>
       <c r="I11" s="7">
-        <v>736560</v>
+        <v>736561</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>72</v>
@@ -2676,7 +2676,7 @@
         <v>76</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2691,13 +2691,13 @@
         <v>676612</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H12" s="7">
         <v>650</v>
@@ -2706,13 +2706,13 @@
         <v>677355</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M12" s="7">
         <v>1305</v>
@@ -2721,13 +2721,13 @@
         <v>1353967</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2754,7 +2754,7 @@
         <v>1526</v>
       </c>
       <c r="I13" s="7">
-        <v>1559719</v>
+        <v>1559720</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>49</v>
@@ -2783,7 +2783,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2795,13 +2795,13 @@
         <v>50272</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>15</v>
@@ -2810,13 +2810,13 @@
         <v>16301</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>63</v>
@@ -2825,19 +2825,19 @@
         <v>66572</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C15" s="7">
         <v>106</v>
@@ -2846,13 +2846,13 @@
         <v>107025</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H15" s="7">
         <v>45</v>
@@ -2861,13 +2861,13 @@
         <v>45969</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M15" s="7">
         <v>151</v>
@@ -2876,13 +2876,13 @@
         <v>152994</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2897,13 +2897,13 @@
         <v>242479</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>211</v>
@@ -2912,13 +2912,13 @@
         <v>222475</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>444</v>
@@ -2927,13 +2927,13 @@
         <v>464953</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2948,13 +2948,13 @@
         <v>147042</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>171</v>
@@ -2963,13 +2963,13 @@
         <v>181169</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>306</v>
@@ -2978,13 +2978,13 @@
         <v>328211</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3052,10 +3052,10 @@
         <v>148019</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>124</v>
+        <v>57</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>125</v>
@@ -3094,7 +3094,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>390</v>
@@ -3169,13 +3169,13 @@
         <v>1541061</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M21" s="7">
         <v>2862</v>
@@ -3184,13 +3184,13 @@
         <v>2899464</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3205,13 +3205,13 @@
         <v>1327127</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H22" s="7">
         <v>1473</v>
@@ -3220,13 +3220,13 @@
         <v>1531062</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M22" s="7">
         <v>2764</v>
@@ -3235,13 +3235,13 @@
         <v>2858190</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3297,7 +3297,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -3316,7 +3316,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A1CDB01-C311-407A-B1D7-A5877F8F0D96}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{564132DD-1CBE-4F66-90DD-96156E01FB60}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3333,7 +3333,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3440,13 +3440,13 @@
         <v>24196</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="H4" s="7">
         <v>10</v>
@@ -3461,7 +3461,7 @@
         <v>164</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>55</v>
+        <v>165</v>
       </c>
       <c r="M4" s="7">
         <v>32</v>
@@ -3470,19 +3470,19 @@
         <v>35737</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>52</v>
@@ -3491,13 +3491,13 @@
         <v>53137</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H5" s="7">
         <v>40</v>
@@ -3506,13 +3506,13 @@
         <v>42574</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="M5" s="7">
         <v>92</v>
@@ -3521,13 +3521,13 @@
         <v>95710</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3542,13 +3542,13 @@
         <v>644695</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="H6" s="7">
         <v>742</v>
@@ -3557,13 +3557,13 @@
         <v>797537</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="M6" s="7">
         <v>1338</v>
@@ -3572,13 +3572,13 @@
         <v>1442232</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3593,13 +3593,13 @@
         <v>251718</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="H7" s="7">
         <v>454</v>
@@ -3608,13 +3608,13 @@
         <v>485048</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="M7" s="7">
         <v>691</v>
@@ -3623,13 +3623,13 @@
         <v>736766</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3697,13 +3697,13 @@
         <v>206660</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="H9" s="7">
         <v>34</v>
@@ -3712,13 +3712,13 @@
         <v>35535</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="M9" s="7">
         <v>237</v>
@@ -3727,19 +3727,19 @@
         <v>242196</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7">
         <v>386</v>
@@ -3748,13 +3748,13 @@
         <v>403673</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="H10" s="7">
         <v>123</v>
@@ -3763,13 +3763,13 @@
         <v>129313</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="M10" s="7">
         <v>509</v>
@@ -3778,13 +3778,13 @@
         <v>532987</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3799,13 +3799,13 @@
         <v>902828</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="H11" s="7">
         <v>987</v>
@@ -3814,13 +3814,13 @@
         <v>1062091</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="M11" s="7">
         <v>1836</v>
@@ -3829,13 +3829,13 @@
         <v>1964918</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3850,13 +3850,13 @@
         <v>449935</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="H12" s="7">
         <v>491</v>
@@ -3865,13 +3865,13 @@
         <v>530864</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="M12" s="7">
         <v>908</v>
@@ -3880,13 +3880,13 @@
         <v>980798</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3942,7 +3942,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -3954,13 +3954,13 @@
         <v>55501</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="H14" s="7">
         <v>20</v>
@@ -3969,13 +3969,13 @@
         <v>23115</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="M14" s="7">
         <v>75</v>
@@ -3984,19 +3984,19 @@
         <v>78616</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C15" s="7">
         <v>124</v>
@@ -4005,13 +4005,13 @@
         <v>141483</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="H15" s="7">
         <v>52</v>
@@ -4020,13 +4020,13 @@
         <v>60713</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="M15" s="7">
         <v>176</v>
@@ -4035,13 +4035,13 @@
         <v>202196</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4056,13 +4056,13 @@
         <v>218486</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="H16" s="7">
         <v>261</v>
@@ -4071,13 +4071,13 @@
         <v>291939</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="M16" s="7">
         <v>460</v>
@@ -4086,13 +4086,13 @@
         <v>510425</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4107,13 +4107,13 @@
         <v>65711</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="H17" s="7">
         <v>79</v>
@@ -4122,13 +4122,13 @@
         <v>82864</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="M17" s="7">
         <v>139</v>
@@ -4137,13 +4137,13 @@
         <v>148575</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4211,13 +4211,13 @@
         <v>286358</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="H19" s="7">
         <v>64</v>
@@ -4226,13 +4226,13 @@
         <v>70191</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="M19" s="7">
         <v>344</v>
@@ -4241,19 +4241,19 @@
         <v>356548</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>271</v>
+        <v>95</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>562</v>
@@ -4262,13 +4262,13 @@
         <v>598293</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>62</v>
+        <v>277</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="H20" s="7">
         <v>215</v>
@@ -4277,13 +4277,13 @@
         <v>232600</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="M20" s="7">
         <v>777</v>
@@ -4292,13 +4292,13 @@
         <v>830893</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>133</v>
+        <v>283</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4313,13 +4313,13 @@
         <v>1766009</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="H21" s="7">
         <v>1990</v>
@@ -4328,13 +4328,13 @@
         <v>2151566</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="M21" s="7">
         <v>3634</v>
@@ -4343,13 +4343,13 @@
         <v>3917575</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4364,13 +4364,13 @@
         <v>767364</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>204</v>
+        <v>294</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="H22" s="7">
         <v>1024</v>
@@ -4379,13 +4379,13 @@
         <v>1098775</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="M22" s="7">
         <v>1738</v>
@@ -4394,13 +4394,13 @@
         <v>1866139</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4456,7 +4456,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -4475,7 +4475,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCF487FB-B0E0-4D48-90E0-68F5F2F8F4A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7D8195F-B200-4CE3-8AD6-D13106B8EB6B}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4492,7 +4492,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4599,13 +4599,13 @@
         <v>17541</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -4614,13 +4614,13 @@
         <v>4816</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="M4" s="7">
         <v>22</v>
@@ -4629,19 +4629,19 @@
         <v>22356</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>54</v>
@@ -4650,13 +4650,13 @@
         <v>56599</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>277</v>
+        <v>203</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="H5" s="7">
         <v>32</v>
@@ -4665,13 +4665,13 @@
         <v>34719</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="M5" s="7">
         <v>86</v>
@@ -4680,13 +4680,13 @@
         <v>91318</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4701,13 +4701,13 @@
         <v>325429</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="H6" s="7">
         <v>364</v>
@@ -4716,13 +4716,13 @@
         <v>394269</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="M6" s="7">
         <v>696</v>
@@ -4731,13 +4731,13 @@
         <v>719698</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>323</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4752,13 +4752,13 @@
         <v>354778</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>156</v>
+        <v>329</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="H7" s="7">
         <v>491</v>
@@ -4767,13 +4767,13 @@
         <v>560857</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="M7" s="7">
         <v>850</v>
@@ -4782,13 +4782,13 @@
         <v>915635</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4856,13 +4856,13 @@
         <v>164361</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="H9" s="7">
         <v>50</v>
@@ -4871,13 +4871,13 @@
         <v>48866</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="M9" s="7">
         <v>205</v>
@@ -4886,19 +4886,19 @@
         <v>213227</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7">
         <v>364</v>
@@ -4907,13 +4907,13 @@
         <v>382971</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="H10" s="7">
         <v>205</v>
@@ -4922,13 +4922,13 @@
         <v>210548</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>345</v>
+        <v>197</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="M10" s="7">
         <v>569</v>
@@ -4937,13 +4937,13 @@
         <v>593518</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>349</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4958,13 +4958,13 @@
         <v>864776</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="H11" s="7">
         <v>901</v>
@@ -4973,13 +4973,13 @@
         <v>936294</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>354</v>
+        <v>30</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="M11" s="7">
         <v>1716</v>
@@ -4988,13 +4988,13 @@
         <v>1801070</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>357</v>
+        <v>325</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5009,13 +5009,13 @@
         <v>664277</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H12" s="7">
         <v>752</v>
@@ -5024,13 +5024,13 @@
         <v>792592</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>106</v>
+        <v>363</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="M12" s="7">
         <v>1370</v>
@@ -5039,13 +5039,13 @@
         <v>1456869</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5101,7 +5101,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -5113,13 +5113,13 @@
         <v>59709</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="H14" s="7">
         <v>20</v>
@@ -5128,13 +5128,13 @@
         <v>21188</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>124</v>
+        <v>372</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="M14" s="7">
         <v>75</v>
@@ -5143,19 +5143,19 @@
         <v>80896</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C15" s="7">
         <v>133</v>
@@ -5164,13 +5164,13 @@
         <v>144587</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="H15" s="7">
         <v>92</v>
@@ -5179,13 +5179,13 @@
         <v>95956</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>378</v>
+        <v>211</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="M15" s="7">
         <v>225</v>
@@ -5194,13 +5194,13 @@
         <v>240543</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>382</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5215,13 +5215,13 @@
         <v>217066</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H16" s="7">
         <v>266</v>
@@ -5230,13 +5230,13 @@
         <v>276110</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M16" s="7">
         <v>459</v>
@@ -5245,13 +5245,13 @@
         <v>493176</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>391</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5299,10 +5299,10 @@
         <v>398</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>375</v>
+        <v>399</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5370,13 +5370,13 @@
         <v>241610</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H19" s="7">
         <v>75</v>
@@ -5385,13 +5385,13 @@
         <v>74870</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M19" s="7">
         <v>302</v>
@@ -5400,19 +5400,19 @@
         <v>316480</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>551</v>
@@ -5421,13 +5421,13 @@
         <v>584158</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H20" s="7">
         <v>329</v>
@@ -5436,13 +5436,13 @@
         <v>341222</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M20" s="7">
         <v>880</v>
@@ -5451,13 +5451,13 @@
         <v>925380</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5472,13 +5472,13 @@
         <v>1407272</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>419</v>
+        <v>320</v>
       </c>
       <c r="H21" s="7">
         <v>1531</v>
@@ -5615,7 +5615,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -5634,7 +5634,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3BD9A4-2208-4D77-AB2F-1BDF434E015B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79458114-F3E0-4B11-9239-A516134584B3}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5758,13 +5758,13 @@
         <v>16454</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>437</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>438</v>
       </c>
       <c r="H4" s="7">
         <v>34</v>
@@ -5773,13 +5773,13 @@
         <v>21183</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>440</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>441</v>
       </c>
       <c r="M4" s="7">
         <v>52</v>
@@ -5788,7 +5788,7 @@
         <v>37637</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>130</v>
+        <v>441</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>442</v>
@@ -5800,7 +5800,7 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>23</v>
@@ -5809,10 +5809,10 @@
         <v>22005</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>444</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>445</v>
@@ -5842,10 +5842,10 @@
         <v>449</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>306</v>
+        <v>450</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>443</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5860,13 +5860,13 @@
         <v>226192</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H6" s="7">
         <v>522</v>
@@ -5875,13 +5875,13 @@
         <v>289026</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M6" s="7">
         <v>828</v>
@@ -5890,13 +5890,13 @@
         <v>515218</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5911,13 +5911,13 @@
         <v>273202</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H7" s="7">
         <v>840</v>
@@ -5926,13 +5926,13 @@
         <v>504938</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M7" s="7">
         <v>1180</v>
@@ -5941,13 +5941,13 @@
         <v>778139</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>388</v>
+        <v>467</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6015,13 +6015,13 @@
         <v>275765</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="H9" s="7">
         <v>177</v>
@@ -6030,13 +6030,13 @@
         <v>145657</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>445</v>
+        <v>53</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="M9" s="7">
         <v>380</v>
@@ -6045,19 +6045,19 @@
         <v>421423</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7">
         <v>220</v>
@@ -6066,13 +6066,13 @@
         <v>291531</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>475</v>
+        <v>134</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H10" s="7">
         <v>151</v>
@@ -6081,13 +6081,13 @@
         <v>132838</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="M10" s="7">
         <v>371</v>
@@ -6096,13 +6096,13 @@
         <v>424369</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>482</v>
+        <v>268</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>483</v>
+        <v>414</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6117,13 +6117,13 @@
         <v>924627</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>485</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>486</v>
       </c>
       <c r="H11" s="7">
         <v>1528</v>
@@ -6132,13 +6132,13 @@
         <v>1179067</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>488</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>489</v>
       </c>
       <c r="M11" s="7">
         <v>2435</v>
@@ -6147,13 +6147,13 @@
         <v>2103694</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>490</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>491</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6168,13 +6168,13 @@
         <v>665019</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>493</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>494</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>495</v>
       </c>
       <c r="H12" s="7">
         <v>1061</v>
@@ -6183,13 +6183,13 @@
         <v>789412</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>496</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>497</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>498</v>
       </c>
       <c r="M12" s="7">
         <v>1719</v>
@@ -6198,13 +6198,13 @@
         <v>1454431</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>499</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>500</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6260,7 +6260,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -6272,13 +6272,13 @@
         <v>121690</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>502</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>503</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>504</v>
       </c>
       <c r="H14" s="7">
         <v>118</v>
@@ -6287,13 +6287,13 @@
         <v>94951</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>506</v>
+        <v>66</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="M14" s="7">
         <v>228</v>
@@ -6302,19 +6302,19 @@
         <v>216641</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C15" s="7">
         <v>96</v>
@@ -6323,13 +6323,13 @@
         <v>108731</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="H15" s="7">
         <v>104</v>
@@ -6338,13 +6338,13 @@
         <v>91295</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="M15" s="7">
         <v>200</v>
@@ -6353,13 +6353,13 @@
         <v>200026</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6374,13 +6374,13 @@
         <v>283980</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="H16" s="7">
         <v>520</v>
@@ -6389,13 +6389,13 @@
         <v>342102</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>155</v>
+        <v>520</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="M16" s="7">
         <v>838</v>
@@ -6404,13 +6404,13 @@
         <v>626082</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>429</v>
+        <v>325</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6425,13 +6425,13 @@
         <v>157519</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>527</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>528</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>529</v>
       </c>
       <c r="H17" s="7">
         <v>261</v>
@@ -6440,13 +6440,13 @@
         <v>185136</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>530</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>531</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>532</v>
       </c>
       <c r="M17" s="7">
         <v>417</v>
@@ -6455,13 +6455,13 @@
         <v>342655</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>533</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>534</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6529,13 +6529,13 @@
         <v>413909</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>536</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>537</v>
       </c>
       <c r="H19" s="7">
         <v>329</v>
@@ -6544,13 +6544,13 @@
         <v>261791</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>539</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>540</v>
       </c>
       <c r="M19" s="7">
         <v>660</v>
@@ -6559,19 +6559,19 @@
         <v>675701</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>541</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>542</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>339</v>
@@ -6580,13 +6580,13 @@
         <v>422266</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>544</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>545</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>546</v>
       </c>
       <c r="H20" s="7">
         <v>279</v>
@@ -6595,13 +6595,13 @@
         <v>238051</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>547</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>548</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>549</v>
       </c>
       <c r="M20" s="7">
         <v>618</v>
@@ -6610,13 +6610,13 @@
         <v>660318</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>550</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>551</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6631,13 +6631,13 @@
         <v>1434799</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>553</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>554</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>555</v>
       </c>
       <c r="H21" s="7">
         <v>2570</v>
@@ -6646,13 +6646,13 @@
         <v>1810196</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="K21" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>556</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>557</v>
       </c>
       <c r="M21" s="7">
         <v>4101</v>
@@ -6661,7 +6661,7 @@
         <v>3244994</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>491</v>
+        <v>557</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>558</v>
@@ -6774,7 +6774,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P34A-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P34A-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{951DB643-4930-4528-887F-B4D3D98A6EF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{069852FB-0991-482A-8A7A-430B1CF78044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AE58B3BD-0135-4325-949D-575A510D58DA}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B10C8737-0D32-4FFD-AA1F-C241BE67ADAF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="567">
   <si>
     <t>Población según el tipo de ejercicio físico que realizan en su tiempo libre en 2007 (Tasa respuesta: 98,45%)</t>
   </si>
@@ -77,10 +77,10 @@
     <t>0,72%</t>
   </si>
   <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
   </si>
   <si>
     <t>0,29%</t>
@@ -89,16 +89,13 @@
     <t>0,07%</t>
   </si>
   <si>
-    <t>0,71%</t>
-  </si>
-  <si>
     <t>0,48%</t>
   </si>
   <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
   </si>
   <si>
     <t>Actividad física regular, varias veces al mes</t>
@@ -107,25 +104,28 @@
     <t>4,76%</t>
   </si>
   <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
   </si>
   <si>
     <t>2,7%</t>
   </si>
   <si>
-    <t>1,94%</t>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
   </si>
   <si>
     <t>3,6%</t>
   </si>
   <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
   </si>
   <si>
     <t>Alguna actividad física o deportiva ocasional</t>
@@ -134,28 +134,28 @@
     <t>44,91%</t>
   </si>
   <si>
-    <t>42,24%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>48,11%</t>
   </si>
   <si>
     <t>45,01%</t>
   </si>
   <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>47,66%</t>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>47,68%</t>
   </si>
   <si>
     <t>44,96%</t>
   </si>
   <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>47,1%</t>
+    <t>42,86%</t>
+  </si>
+  <si>
+    <t>46,89%</t>
   </si>
   <si>
     <t>No hago ejercicio. Mi tiempo libre lo ocupo casi completamen</t>
@@ -164,1458 +164,1458 @@
     <t>49,61%</t>
   </si>
   <si>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>52,78%</t>
+  </si>
+  <si>
+    <t>52,01%</t>
+  </si>
+  <si>
+    <t>49,07%</t>
+  </si>
+  <si>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>50,95%</t>
+  </si>
+  <si>
+    <t>48,94%</t>
+  </si>
+  <si>
+    <t>53,17%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>39,53%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>41,84%</t>
+  </si>
+  <si>
+    <t>47,22%</t>
+  </si>
+  <si>
+    <t>44,87%</t>
+  </si>
+  <si>
+    <t>50,01%</t>
+  </si>
+  <si>
+    <t>43,25%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>45,0%</t>
+  </si>
+  <si>
+    <t>40,52%</t>
+  </si>
+  <si>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>42,95%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>45,8%</t>
+  </si>
+  <si>
+    <t>41,92%</t>
+  </si>
+  <si>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>43,71%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>39,73%</t>
+  </si>
+  <si>
+    <t>48,64%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>52,37%</t>
+  </si>
+  <si>
+    <t>45,91%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>38,88%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>42,04%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
+  </si>
+  <si>
     <t>46,43%</t>
   </si>
   <si>
-    <t>52,58%</t>
-  </si>
-  <si>
-    <t>52,01%</t>
-  </si>
-  <si>
-    <t>49,18%</t>
-  </si>
-  <si>
-    <t>54,8%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>48,85%</t>
-  </si>
-  <si>
-    <t>52,99%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
+    <t>44,67%</t>
+  </si>
+  <si>
+    <t>48,09%</t>
+  </si>
+  <si>
+    <t>44,26%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>45,57%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
+  </si>
+  <si>
+    <t>46,13%</t>
+  </si>
+  <si>
+    <t>44,43%</t>
+  </si>
+  <si>
+    <t>47,86%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>42,4%</t>
+  </si>
+  <si>
+    <t>44,88%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tipo de ejercicio físico que realizan en su tiempo libre en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>66,21%</t>
+  </si>
+  <si>
+    <t>62,91%</t>
+  </si>
+  <si>
+    <t>69,19%</t>
+  </si>
+  <si>
+    <t>59,66%</t>
+  </si>
+  <si>
+    <t>56,96%</t>
+  </si>
+  <si>
+    <t>62,52%</t>
+  </si>
+  <si>
+    <t>62,42%</t>
+  </si>
+  <si>
+    <t>60,17%</t>
+  </si>
+  <si>
+    <t>64,38%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>36,29%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>39,06%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>45,99%</t>
+  </si>
+  <si>
+    <t>43,52%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>60,42%</t>
+  </si>
+  <si>
+    <t>57,92%</t>
+  </si>
+  <si>
+    <t>62,82%</t>
+  </si>
+  <si>
+    <t>52,81%</t>
+  </si>
+  <si>
+    <t>51,19%</t>
+  </si>
+  <si>
+    <t>54,47%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>45,41%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>50,08%</t>
+  </si>
+  <si>
+    <t>63,65%</t>
+  </si>
+  <si>
+    <t>58,65%</t>
+  </si>
+  <si>
+    <t>68,33%</t>
+  </si>
+  <si>
+    <t>54,31%</t>
+  </si>
+  <si>
+    <t>51,03%</t>
+  </si>
+  <si>
+    <t>58,01%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>51,67%</t>
+  </si>
+  <si>
+    <t>49,9%</t>
+  </si>
+  <si>
+    <t>53,44%</t>
+  </si>
+  <si>
+    <t>60,55%</t>
+  </si>
+  <si>
+    <t>58,93%</t>
+  </si>
+  <si>
+    <t>62,18%</t>
+  </si>
+  <si>
+    <t>56,2%</t>
+  </si>
+  <si>
+    <t>54,86%</t>
+  </si>
+  <si>
+    <t>57,39%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>Población según el tipo de ejercicio físico que realizan en su tiempo libre en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>43,14%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>46,76%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>42,67%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>43,6%</t>
+  </si>
+  <si>
+    <t>47,03%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
+  </si>
+  <si>
+    <t>56,39%</t>
+  </si>
+  <si>
+    <t>53,21%</t>
+  </si>
+  <si>
+    <t>60,04%</t>
+  </si>
+  <si>
+    <t>52,35%</t>
+  </si>
+  <si>
+    <t>49,92%</t>
+  </si>
+  <si>
+    <t>54,91%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>43,83%</t>
+  </si>
+  <si>
+    <t>47,09%</t>
+  </si>
+  <si>
+    <t>45,03%</t>
+  </si>
+  <si>
+    <t>49,39%</t>
+  </si>
+  <si>
+    <t>44,31%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>39,86%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>41,99%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>37,45%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>39,69%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>44,1%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
+  </si>
+  <si>
+    <t>45,87%</t>
+  </si>
+  <si>
+    <t>54,98%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
+  </si>
+  <si>
+    <t>48,04%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>41,66%</t>
+  </si>
+  <si>
+    <t>39,99%</t>
+  </si>
+  <si>
+    <t>45,49%</t>
+  </si>
+  <si>
+    <t>43,89%</t>
+  </si>
+  <si>
+    <t>47,18%</t>
+  </si>
+  <si>
+    <t>43,62%</t>
+  </si>
+  <si>
+    <t>44,84%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>42,73%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>44,39%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>Población según el tipo de ejercicio físico que realizan en su tiempo libre en 2023 (Tasa respuesta: 99,71%)</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>42,05%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>46,39%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>50,79%</t>
+  </si>
+  <si>
+    <t>46,46%</t>
+  </si>
+  <si>
+    <t>54,65%</t>
+  </si>
+  <si>
+    <t>60,9%</t>
+  </si>
+  <si>
+    <t>58,2%</t>
+  </si>
+  <si>
+    <t>63,8%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>54,45%</t>
+  </si>
+  <si>
+    <t>59,19%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
   </si>
   <si>
     <t>6,48%</t>
   </si>
   <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>39,53%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>41,8%</t>
-  </si>
-  <si>
-    <t>47,22%</t>
-  </si>
-  <si>
-    <t>44,86%</t>
-  </si>
-  <si>
-    <t>49,82%</t>
-  </si>
-  <si>
-    <t>43,25%</t>
-  </si>
-  <si>
-    <t>41,48%</t>
-  </si>
-  <si>
-    <t>44,99%</t>
-  </si>
-  <si>
-    <t>40,52%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>43,01%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>45,86%</t>
-  </si>
-  <si>
-    <t>41,92%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>43,68%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>44,34%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>48,57%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>43,03%</t>
-  </si>
-  <si>
-    <t>52,28%</t>
-  </si>
-  <si>
-    <t>45,91%</t>
-  </si>
-  <si>
-    <t>42,81%</t>
-  </si>
-  <si>
-    <t>49,06%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>38,88%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>43,69%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
   </si>
   <si>
     <t>13,52%</t>
   </si>
   <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>42,04%</t>
-  </si>
-  <si>
-    <t>40,38%</t>
-  </si>
-  <si>
-    <t>43,91%</t>
-  </si>
-  <si>
-    <t>44,82%</t>
-  </si>
-  <si>
-    <t>48,41%</t>
-  </si>
-  <si>
-    <t>44,26%</t>
-  </si>
-  <si>
-    <t>43,06%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>46,13%</t>
-  </si>
-  <si>
-    <t>44,28%</t>
-  </si>
-  <si>
-    <t>47,71%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
-  </si>
-  <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tipo de ejercicio físico que realizan en su tiempo libre en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>66,21%</t>
-  </si>
-  <si>
-    <t>62,95%</t>
-  </si>
-  <si>
-    <t>69,26%</t>
-  </si>
-  <si>
-    <t>59,66%</t>
-  </si>
-  <si>
-    <t>56,79%</t>
-  </si>
-  <si>
-    <t>62,4%</t>
-  </si>
-  <si>
-    <t>62,42%</t>
-  </si>
-  <si>
-    <t>60,46%</t>
-  </si>
-  <si>
-    <t>64,44%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>45,99%</t>
-  </si>
-  <si>
-    <t>43,66%</t>
-  </si>
-  <si>
-    <t>48,36%</t>
-  </si>
-  <si>
-    <t>60,42%</t>
-  </si>
-  <si>
-    <t>57,97%</t>
-  </si>
-  <si>
-    <t>62,72%</t>
-  </si>
-  <si>
-    <t>52,81%</t>
-  </si>
-  <si>
-    <t>51,13%</t>
-  </si>
-  <si>
-    <t>54,63%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>45,41%</t>
-  </si>
-  <si>
-    <t>40,47%</t>
-  </si>
-  <si>
-    <t>50,14%</t>
-  </si>
-  <si>
-    <t>63,65%</t>
-  </si>
-  <si>
-    <t>58,84%</t>
-  </si>
-  <si>
-    <t>68,4%</t>
-  </si>
-  <si>
-    <t>54,31%</t>
-  </si>
-  <si>
-    <t>50,71%</t>
-  </si>
-  <si>
-    <t>57,73%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>51,67%</t>
-  </si>
-  <si>
-    <t>49,79%</t>
-  </si>
-  <si>
-    <t>53,35%</t>
-  </si>
-  <si>
-    <t>60,55%</t>
-  </si>
-  <si>
-    <t>58,98%</t>
-  </si>
-  <si>
-    <t>62,14%</t>
-  </si>
-  <si>
-    <t>56,2%</t>
-  </si>
-  <si>
-    <t>54,88%</t>
-  </si>
-  <si>
-    <t>57,26%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>42,87%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>47,98%</t>
+  </si>
+  <si>
+    <t>52,47%</t>
+  </si>
+  <si>
+    <t>49,3%</t>
+  </si>
+  <si>
+    <t>59,96%</t>
+  </si>
+  <si>
+    <t>47,77%</t>
+  </si>
+  <si>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>52,0%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
   </si>
   <si>
     <t>27,83%</t>
   </si>
   <si>
-    <t>Población según el tipo de ejercicio físico que realizan en su tiempo libre en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>43,14%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>46,64%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>36,64%</t>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>46,2%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>51,8%</t>
+  </si>
+  <si>
+    <t>45,19%</t>
   </si>
   <si>
     <t>42,77%</t>
   </si>
   <si>
-    <t>41,15%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>47,03%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>56,39%</t>
-  </si>
-  <si>
-    <t>53,36%</t>
-  </si>
-  <si>
-    <t>59,8%</t>
-  </si>
-  <si>
-    <t>52,35%</t>
-  </si>
-  <si>
-    <t>50,02%</t>
-  </si>
-  <si>
-    <t>54,78%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>39,39%</t>
-  </si>
-  <si>
-    <t>43,82%</t>
-  </si>
-  <si>
-    <t>47,09%</t>
-  </si>
-  <si>
-    <t>49,31%</t>
-  </si>
-  <si>
-    <t>44,31%</t>
-  </si>
-  <si>
-    <t>45,81%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>39,86%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>42,16%</t>
-  </si>
-  <si>
-    <t>35,84%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>44,16%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>45,9%</t>
-  </si>
-  <si>
-    <t>54,97%</t>
-  </si>
-  <si>
-    <t>45,0%</t>
-  </si>
-  <si>
-    <t>41,98%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>41,66%</t>
-  </si>
-  <si>
-    <t>39,68%</t>
-  </si>
-  <si>
-    <t>45,49%</t>
-  </si>
-  <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>47,24%</t>
-  </si>
-  <si>
-    <t>43,62%</t>
-  </si>
-  <si>
-    <t>42,32%</t>
-  </si>
-  <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>35,59%</t>
-  </si>
-  <si>
-    <t>42,73%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>44,36%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>Población según el tipo de ejercicio físico que realizan en su tiempo libre en 2023 (Tasa respuesta: 99,71%)</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>42,05%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>46,39%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>37,45%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>50,79%</t>
-  </si>
-  <si>
-    <t>46,46%</t>
-  </si>
-  <si>
-    <t>54,65%</t>
-  </si>
-  <si>
-    <t>60,9%</t>
-  </si>
-  <si>
-    <t>58,2%</t>
-  </si>
-  <si>
-    <t>63,8%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>54,45%</t>
-  </si>
-  <si>
-    <t>59,19%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>42,87%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>47,98%</t>
-  </si>
-  <si>
-    <t>52,47%</t>
-  </si>
-  <si>
-    <t>49,3%</t>
-  </si>
-  <si>
-    <t>59,96%</t>
-  </si>
-  <si>
-    <t>47,77%</t>
-  </si>
-  <si>
-    <t>45,2%</t>
-  </si>
-  <si>
-    <t>52,0%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>46,2%</t>
-  </si>
-  <si>
-    <t>47,95%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>51,8%</t>
-  </si>
-  <si>
-    <t>45,19%</t>
-  </si>
-  <si>
-    <t>47,68%</t>
-  </si>
-  <si>
     <t>23,44%</t>
   </si>
   <si>
@@ -1718,16 +1718,10 @@
     <t>43,78%</t>
   </si>
   <si>
-    <t>48,04%</t>
-  </si>
-  <si>
     <t>32,55%</t>
   </si>
   <si>
     <t>30,44%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
   </si>
   <si>
     <t>39,04%</t>
@@ -2157,7 +2151,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2E34D9A-118C-48AF-82B4-9458D086CD1B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAB0BC3D-58A4-4D7E-9547-7C68FC646077}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2302,7 +2296,7 @@
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="M4" s="7">
         <v>12</v>
@@ -2311,19 +2305,19 @@
         <v>11000</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>50</v>
@@ -2332,13 +2326,13 @@
         <v>48345</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>35</v>
@@ -2347,13 +2341,13 @@
         <v>34856</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="M5" s="7">
         <v>85</v>
@@ -2580,7 +2574,7 @@
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="7">
         <v>234</v>
@@ -2652,7 +2646,7 @@
         <v>727</v>
       </c>
       <c r="I11" s="7">
-        <v>736561</v>
+        <v>736560</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>72</v>
@@ -2754,7 +2748,7 @@
         <v>1526</v>
       </c>
       <c r="I13" s="7">
-        <v>1559720</v>
+        <v>1559719</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>49</v>
@@ -2837,7 +2831,7 @@
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="7">
         <v>106</v>
@@ -2915,10 +2909,10 @@
         <v>109</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>444</v>
@@ -2927,13 +2921,13 @@
         <v>464953</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2948,13 +2942,13 @@
         <v>147042</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>171</v>
@@ -2963,13 +2957,13 @@
         <v>181169</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>306</v>
@@ -2978,13 +2972,13 @@
         <v>328211</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3052,13 +3046,13 @@
         <v>148019</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H19" s="7">
         <v>56</v>
@@ -3067,13 +3061,13 @@
         <v>54994</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M19" s="7">
         <v>202</v>
@@ -3082,19 +3076,19 @@
         <v>203012</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="7">
         <v>390</v>
@@ -3103,13 +3097,13 @@
         <v>398014</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H20" s="7">
         <v>192</v>
@@ -3118,13 +3112,13 @@
         <v>191642</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M20" s="7">
         <v>582</v>
@@ -3133,13 +3127,13 @@
         <v>589656</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3154,13 +3148,13 @@
         <v>1358403</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H21" s="7">
         <v>1517</v>
@@ -3169,13 +3163,13 @@
         <v>1541061</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>41</v>
+        <v>142</v>
       </c>
       <c r="K21" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="M21" s="7">
         <v>2862</v>
@@ -3184,13 +3178,13 @@
         <v>2899464</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3205,13 +3199,13 @@
         <v>1327127</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="H22" s="7">
         <v>1473</v>
@@ -3220,13 +3214,13 @@
         <v>1531062</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M22" s="7">
         <v>2764</v>
@@ -3235,13 +3229,13 @@
         <v>2858190</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3297,7 +3291,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -3316,7 +3310,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{564132DD-1CBE-4F66-90DD-96156E01FB60}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAC1A01F-D1AC-4685-B165-FE57D93791B6}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3333,7 +3327,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3440,13 +3434,13 @@
         <v>24196</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H4" s="7">
         <v>10</v>
@@ -3455,13 +3449,13 @@
         <v>11541</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M4" s="7">
         <v>32</v>
@@ -3470,19 +3464,19 @@
         <v>35737</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>52</v>
@@ -3491,13 +3485,13 @@
         <v>53137</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H5" s="7">
         <v>40</v>
@@ -3506,13 +3500,13 @@
         <v>42574</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M5" s="7">
         <v>92</v>
@@ -3521,13 +3515,13 @@
         <v>95710</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3542,13 +3536,13 @@
         <v>644695</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="H6" s="7">
         <v>742</v>
@@ -3557,28 +3551,28 @@
         <v>797537</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M6" s="7">
         <v>1338</v>
       </c>
       <c r="N6" s="7">
-        <v>1442232</v>
+        <v>1442231</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3593,13 +3587,13 @@
         <v>251718</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="H7" s="7">
         <v>454</v>
@@ -3608,13 +3602,13 @@
         <v>485048</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M7" s="7">
         <v>691</v>
@@ -3623,13 +3617,13 @@
         <v>736766</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3671,7 +3665,7 @@
         <v>2153</v>
       </c>
       <c r="N8" s="7">
-        <v>2310445</v>
+        <v>2310444</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>49</v>
@@ -3697,13 +3691,13 @@
         <v>206660</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H9" s="7">
         <v>34</v>
@@ -3712,13 +3706,13 @@
         <v>35535</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="M9" s="7">
         <v>237</v>
@@ -3727,19 +3721,19 @@
         <v>242196</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="7">
         <v>386</v>
@@ -3748,13 +3742,13 @@
         <v>403673</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="H10" s="7">
         <v>123</v>
@@ -3763,13 +3757,13 @@
         <v>129313</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="M10" s="7">
         <v>509</v>
@@ -3778,13 +3772,13 @@
         <v>532987</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3799,13 +3793,13 @@
         <v>902828</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="H11" s="7">
         <v>987</v>
@@ -3814,13 +3808,13 @@
         <v>1062091</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="M11" s="7">
         <v>1836</v>
@@ -3829,13 +3823,13 @@
         <v>1964918</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3850,13 +3844,13 @@
         <v>449935</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="H12" s="7">
         <v>491</v>
@@ -3865,13 +3859,13 @@
         <v>530864</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="M12" s="7">
         <v>908</v>
@@ -3880,13 +3874,13 @@
         <v>980798</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3954,13 +3948,13 @@
         <v>55501</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>233</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>234</v>
+        <v>103</v>
       </c>
       <c r="H14" s="7">
         <v>20</v>
@@ -3969,13 +3963,13 @@
         <v>23115</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="M14" s="7">
         <v>75</v>
@@ -3984,19 +3978,19 @@
         <v>78616</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="7">
         <v>124</v>
@@ -4005,13 +3999,13 @@
         <v>141483</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="H15" s="7">
         <v>52</v>
@@ -4020,13 +4014,13 @@
         <v>60713</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="M15" s="7">
         <v>176</v>
@@ -4035,13 +4029,13 @@
         <v>202196</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4056,13 +4050,13 @@
         <v>218486</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="H16" s="7">
         <v>261</v>
@@ -4071,13 +4065,13 @@
         <v>291939</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="M16" s="7">
         <v>460</v>
@@ -4086,13 +4080,13 @@
         <v>510425</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4107,13 +4101,13 @@
         <v>65711</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="H17" s="7">
         <v>79</v>
@@ -4122,13 +4116,13 @@
         <v>82864</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="M17" s="7">
         <v>139</v>
@@ -4137,13 +4131,13 @@
         <v>148575</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4211,13 +4205,13 @@
         <v>286358</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="H19" s="7">
         <v>64</v>
@@ -4226,13 +4220,13 @@
         <v>70191</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="M19" s="7">
         <v>344</v>
@@ -4241,19 +4235,19 @@
         <v>356548</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>95</v>
+        <v>272</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>274</v>
+        <v>122</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="7">
         <v>562</v>
@@ -4262,13 +4256,13 @@
         <v>598293</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="H20" s="7">
         <v>215</v>
@@ -4277,13 +4271,13 @@
         <v>232600</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="M20" s="7">
         <v>777</v>
@@ -4292,13 +4286,13 @@
         <v>830893</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4313,13 +4307,13 @@
         <v>1766009</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="H21" s="7">
         <v>1990</v>
@@ -4328,13 +4322,13 @@
         <v>2151566</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="M21" s="7">
         <v>3634</v>
@@ -4343,13 +4337,13 @@
         <v>3917575</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4364,13 +4358,13 @@
         <v>767364</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="H22" s="7">
         <v>1024</v>
@@ -4379,13 +4373,13 @@
         <v>1098775</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="M22" s="7">
         <v>1738</v>
@@ -4394,13 +4388,13 @@
         <v>1866139</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4456,7 +4450,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -4475,7 +4469,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7D8195F-B200-4CE3-8AD6-D13106B8EB6B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8422B706-D5BF-44B8-9DCE-A4C283702945}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4492,7 +4486,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4599,13 +4593,13 @@
         <v>17541</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -4614,13 +4608,13 @@
         <v>4816</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="M4" s="7">
         <v>22</v>
@@ -4629,19 +4623,19 @@
         <v>22356</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>54</v>
@@ -4650,13 +4644,13 @@
         <v>56599</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>203</v>
+        <v>310</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H5" s="7">
         <v>32</v>
@@ -4665,13 +4659,13 @@
         <v>34719</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>316</v>
       </c>
       <c r="M5" s="7">
         <v>86</v>
@@ -4680,13 +4674,13 @@
         <v>91318</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>318</v>
+        <v>173</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4701,13 +4695,13 @@
         <v>325429</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="H6" s="7">
         <v>364</v>
@@ -4716,13 +4710,13 @@
         <v>394269</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="M6" s="7">
         <v>696</v>
@@ -4731,13 +4725,13 @@
         <v>719698</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>81</v>
+        <v>325</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4752,13 +4746,13 @@
         <v>354778</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>330</v>
       </c>
       <c r="H7" s="7">
         <v>491</v>
@@ -4767,13 +4761,13 @@
         <v>560857</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>333</v>
       </c>
       <c r="M7" s="7">
         <v>850</v>
@@ -4782,13 +4776,13 @@
         <v>915635</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4856,13 +4850,13 @@
         <v>164361</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>339</v>
       </c>
       <c r="H9" s="7">
         <v>50</v>
@@ -4871,13 +4865,13 @@
         <v>48866</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>341</v>
+        <v>308</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="M9" s="7">
         <v>205</v>
@@ -4886,19 +4880,19 @@
         <v>213227</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="7">
         <v>364</v>
@@ -4907,13 +4901,13 @@
         <v>382971</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="H10" s="7">
         <v>205</v>
@@ -4922,13 +4916,13 @@
         <v>210548</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>349</v>
+        <v>238</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>197</v>
+        <v>346</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="M10" s="7">
         <v>569</v>
@@ -4937,13 +4931,13 @@
         <v>593518</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>265</v>
+        <v>350</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4958,13 +4952,13 @@
         <v>864776</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>355</v>
       </c>
       <c r="H11" s="7">
         <v>901</v>
@@ -4973,13 +4967,13 @@
         <v>936294</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>357</v>
       </c>
       <c r="M11" s="7">
         <v>1716</v>
@@ -4988,10 +4982,10 @@
         <v>1801070</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>325</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>359</v>
@@ -5134,7 +5128,7 @@
         <v>373</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>280</v>
+        <v>374</v>
       </c>
       <c r="M14" s="7">
         <v>75</v>
@@ -5143,19 +5137,19 @@
         <v>80896</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="7">
         <v>133</v>
@@ -5164,13 +5158,13 @@
         <v>144587</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H15" s="7">
         <v>92</v>
@@ -5179,13 +5173,13 @@
         <v>95956</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>211</v>
+        <v>382</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="M15" s="7">
         <v>225</v>
@@ -5194,13 +5188,13 @@
         <v>240543</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>249</v>
+        <v>386</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5215,13 +5209,13 @@
         <v>217066</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="H16" s="7">
         <v>266</v>
@@ -5230,13 +5224,13 @@
         <v>276110</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="M16" s="7">
         <v>459</v>
@@ -5245,13 +5239,13 @@
         <v>493176</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>390</v>
+        <v>77</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>145</v>
+        <v>394</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5266,13 +5260,13 @@
         <v>125524</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="H17" s="7">
         <v>148</v>
@@ -5281,13 +5275,13 @@
         <v>155886</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="M17" s="7">
         <v>268</v>
@@ -5296,13 +5290,13 @@
         <v>281410</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5370,13 +5364,13 @@
         <v>241610</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="H19" s="7">
         <v>75</v>
@@ -5385,13 +5379,13 @@
         <v>74870</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="M19" s="7">
         <v>302</v>
@@ -5400,19 +5394,19 @@
         <v>316480</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>408</v>
+        <v>272</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="7">
         <v>551</v>
@@ -5421,13 +5415,13 @@
         <v>584158</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="H20" s="7">
         <v>329</v>
@@ -5436,13 +5430,13 @@
         <v>341222</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="M20" s="7">
         <v>880</v>
@@ -5451,13 +5445,13 @@
         <v>925380</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5472,13 +5466,13 @@
         <v>1407272</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="H21" s="7">
         <v>1531</v>
@@ -5487,13 +5481,13 @@
         <v>1606673</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="M21" s="7">
         <v>2871</v>
@@ -5502,13 +5496,13 @@
         <v>3013945</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>424</v>
+        <v>155</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5523,13 +5517,13 @@
         <v>1144579</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H22" s="7">
         <v>1391</v>
@@ -5538,13 +5532,13 @@
         <v>1509335</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M22" s="7">
         <v>2488</v>
@@ -5553,13 +5547,13 @@
         <v>2653914</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5615,7 +5609,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -5634,7 +5628,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79458114-F3E0-4B11-9239-A516134584B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CC8657B-7389-429E-A58F-81547C39D9EB}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5651,7 +5645,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5758,13 +5752,13 @@
         <v>16454</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>236</v>
+        <v>437</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="H4" s="7">
         <v>34</v>
@@ -5773,13 +5767,13 @@
         <v>21183</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>438</v>
+        <v>373</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M4" s="7">
         <v>52</v>
@@ -5788,19 +5782,19 @@
         <v>37637</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>23</v>
@@ -5809,13 +5803,13 @@
         <v>22005</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>407</v>
+        <v>445</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="H5" s="7">
         <v>24</v>
@@ -5824,13 +5818,13 @@
         <v>13919</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>447</v>
+        <v>166</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M5" s="7">
         <v>47</v>
@@ -5839,13 +5833,13 @@
         <v>35923</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>450</v>
+        <v>308</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>162</v>
+        <v>451</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5860,13 +5854,13 @@
         <v>226192</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H6" s="7">
         <v>522</v>
@@ -5875,13 +5869,13 @@
         <v>289026</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>456</v>
+        <v>368</v>
       </c>
       <c r="M6" s="7">
         <v>828</v>
@@ -6015,13 +6009,13 @@
         <v>275765</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>470</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>471</v>
       </c>
       <c r="H9" s="7">
         <v>177</v>
@@ -6030,7 +6024,7 @@
         <v>145657</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>53</v>
+        <v>471</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>472</v>
@@ -6057,7 +6051,7 @@
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="7">
         <v>220</v>
@@ -6066,13 +6060,13 @@
         <v>291531</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>134</v>
+        <v>477</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H10" s="7">
         <v>151</v>
@@ -6081,13 +6075,13 @@
         <v>132838</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>479</v>
+        <v>64</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>480</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>481</v>
       </c>
       <c r="M10" s="7">
         <v>371</v>
@@ -6096,13 +6090,13 @@
         <v>424369</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>482</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6171,10 +6165,10 @@
         <v>492</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>302</v>
+        <v>493</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H12" s="7">
         <v>1061</v>
@@ -6183,13 +6177,13 @@
         <v>789412</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="M12" s="7">
         <v>1719</v>
@@ -6198,13 +6192,13 @@
         <v>1454431</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6272,13 +6266,13 @@
         <v>121690</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H14" s="7">
         <v>118</v>
@@ -6287,13 +6281,13 @@
         <v>94951</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>66</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="M14" s="7">
         <v>228</v>
@@ -6302,19 +6296,19 @@
         <v>216641</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="7">
         <v>96</v>
@@ -6323,13 +6317,13 @@
         <v>108731</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H15" s="7">
         <v>104</v>
@@ -6338,13 +6332,13 @@
         <v>91295</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="M15" s="7">
         <v>200</v>
@@ -6353,13 +6347,13 @@
         <v>200026</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>516</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6407,10 +6401,10 @@
         <v>523</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>325</v>
+        <v>524</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>524</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6571,7 +6565,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="7">
         <v>339</v>
@@ -6667,7 +6661,7 @@
         <v>558</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>559</v>
+        <v>394</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6682,13 +6676,13 @@
         <v>1095740</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>560</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>561</v>
-      </c>
       <c r="G22" s="7" t="s">
-        <v>562</v>
+        <v>367</v>
       </c>
       <c r="H22" s="7">
         <v>2162</v>
@@ -6697,13 +6691,13 @@
         <v>1479486</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>563</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>564</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>565</v>
       </c>
       <c r="M22" s="7">
         <v>3316</v>
@@ -6712,13 +6706,13 @@
         <v>2575225</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>566</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>567</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6774,7 +6768,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P34A-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P34A-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{069852FB-0991-482A-8A7A-430B1CF78044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{76707893-D448-4364-A01D-568E9BC53F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B10C8737-0D32-4FFD-AA1F-C241BE67ADAF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{38666F2C-FD9F-4E75-ABA6-BE0B2F45A57B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="569">
   <si>
     <t>Población según el tipo de ejercicio físico que realizan en su tiempo libre en 2007 (Tasa respuesta: 98,45%)</t>
   </si>
@@ -77,1669 +77,1675 @@
     <t>0,72%</t>
   </si>
   <si>
-    <t>0,34%</t>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>Actividad física regular, varias veces al mes</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>Alguna actividad física o deportiva ocasional</t>
+  </si>
+  <si>
+    <t>44,91%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>47,92%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>42,25%</t>
+  </si>
+  <si>
+    <t>47,6%</t>
+  </si>
+  <si>
+    <t>44,96%</t>
+  </si>
+  <si>
+    <t>42,95%</t>
+  </si>
+  <si>
+    <t>46,99%</t>
+  </si>
+  <si>
+    <t>No hago ejercicio. Mi tiempo libre lo ocupo casi completamen</t>
+  </si>
+  <si>
+    <t>49,61%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>52,74%</t>
+  </si>
+  <si>
+    <t>52,01%</t>
+  </si>
+  <si>
+    <t>49,54%</t>
+  </si>
+  <si>
+    <t>55,0%</t>
+  </si>
+  <si>
+    <t>50,95%</t>
+  </si>
+  <si>
+    <t>49,01%</t>
+  </si>
+  <si>
+    <t>52,98%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>39,53%</t>
+  </si>
+  <si>
+    <t>37,24%</t>
+  </si>
+  <si>
+    <t>42,08%</t>
+  </si>
+  <si>
+    <t>47,22%</t>
+  </si>
+  <si>
+    <t>44,48%</t>
+  </si>
+  <si>
+    <t>49,86%</t>
+  </si>
+  <si>
+    <t>43,25%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>40,52%</t>
+  </si>
+  <si>
+    <t>38,04%</t>
+  </si>
+  <si>
+    <t>42,94%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
+  </si>
+  <si>
+    <t>46,04%</t>
+  </si>
+  <si>
+    <t>41,92%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>43,65%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>39,86%</t>
+  </si>
+  <si>
+    <t>48,77%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>52,52%</t>
+  </si>
+  <si>
+    <t>45,91%</t>
+  </si>
+  <si>
+    <t>42,72%</t>
+  </si>
+  <si>
+    <t>48,96%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>38,88%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>43,78%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>42,04%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>46,43%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>48,12%</t>
+  </si>
+  <si>
+    <t>44,26%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>42,67%</t>
+  </si>
+  <si>
+    <t>46,13%</t>
+  </si>
+  <si>
+    <t>44,36%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>44,95%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tipo de ejercicio físico que realizan en su tiempo libre en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>66,21%</t>
+  </si>
+  <si>
+    <t>63,11%</t>
+  </si>
+  <si>
+    <t>69,2%</t>
+  </si>
+  <si>
+    <t>59,66%</t>
+  </si>
+  <si>
+    <t>56,8%</t>
+  </si>
+  <si>
+    <t>62,41%</t>
+  </si>
+  <si>
+    <t>62,42%</t>
+  </si>
+  <si>
+    <t>60,08%</t>
+  </si>
+  <si>
+    <t>64,42%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>36,29%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>45,99%</t>
+  </si>
+  <si>
+    <t>43,4%</t>
+  </si>
+  <si>
+    <t>48,29%</t>
+  </si>
+  <si>
+    <t>60,42%</t>
+  </si>
+  <si>
+    <t>57,9%</t>
+  </si>
+  <si>
+    <t>62,72%</t>
+  </si>
+  <si>
+    <t>52,81%</t>
+  </si>
+  <si>
+    <t>51,05%</t>
+  </si>
+  <si>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>45,41%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>50,0%</t>
+  </si>
+  <si>
+    <t>63,65%</t>
+  </si>
+  <si>
+    <t>58,6%</t>
+  </si>
+  <si>
+    <t>68,58%</t>
+  </si>
+  <si>
+    <t>54,31%</t>
+  </si>
+  <si>
+    <t>50,78%</t>
+  </si>
+  <si>
+    <t>57,42%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>51,67%</t>
+  </si>
+  <si>
+    <t>50,04%</t>
+  </si>
+  <si>
+    <t>53,5%</t>
+  </si>
+  <si>
+    <t>60,55%</t>
+  </si>
+  <si>
+    <t>59,05%</t>
+  </si>
+  <si>
+    <t>62,47%</t>
+  </si>
+  <si>
+    <t>56,2%</t>
+  </si>
+  <si>
+    <t>54,97%</t>
+  </si>
+  <si>
+    <t>57,46%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>Población según el tipo de ejercicio físico que realizan en su tiempo libre en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>2,33%</t>
   </si>
   <si>
     <t>1,35%</t>
   </si>
   <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>Actividad física regular, varias veces al mes</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
   </si>
   <si>
     <t>1,89%</t>
   </si>
   <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>Alguna actividad física o deportiva ocasional</t>
-  </si>
-  <si>
-    <t>44,91%</t>
-  </si>
-  <si>
-    <t>41,82%</t>
-  </si>
-  <si>
-    <t>48,11%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>43,14%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>42,97%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>38,7%</t>
+  </si>
+  <si>
+    <t>43,52%</t>
+  </si>
+  <si>
+    <t>47,03%</t>
+  </si>
+  <si>
+    <t>50,66%</t>
+  </si>
+  <si>
+    <t>56,39%</t>
+  </si>
+  <si>
+    <t>52,99%</t>
+  </si>
+  <si>
+    <t>59,38%</t>
+  </si>
+  <si>
+    <t>52,35%</t>
+  </si>
+  <si>
+    <t>49,87%</t>
+  </si>
+  <si>
+    <t>54,8%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>39,56%</t>
+  </si>
+  <si>
+    <t>43,85%</t>
+  </si>
+  <si>
+    <t>47,09%</t>
+  </si>
+  <si>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>49,38%</t>
+  </si>
+  <si>
+    <t>44,31%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>45,81%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
   </si>
   <si>
     <t>42,15%</t>
   </si>
   <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>44,96%</t>
-  </si>
-  <si>
-    <t>42,86%</t>
-  </si>
-  <si>
-    <t>46,89%</t>
-  </si>
-  <si>
-    <t>No hago ejercicio. Mi tiempo libre lo ocupo casi completamen</t>
-  </si>
-  <si>
-    <t>49,61%</t>
-  </si>
-  <si>
-    <t>46,69%</t>
-  </si>
-  <si>
-    <t>52,78%</t>
-  </si>
-  <si>
-    <t>52,01%</t>
-  </si>
-  <si>
-    <t>49,07%</t>
-  </si>
-  <si>
-    <t>54,52%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>48,94%</t>
-  </si>
-  <si>
-    <t>53,17%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>39,69%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>43,89%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
+  </si>
+  <si>
+    <t>46,28%</t>
+  </si>
+  <si>
+    <t>54,67%</t>
+  </si>
+  <si>
+    <t>45,0%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
+  </si>
+  <si>
+    <t>48,02%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>41,66%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>43,46%</t>
+  </si>
+  <si>
+    <t>45,49%</t>
+  </si>
+  <si>
+    <t>43,72%</t>
+  </si>
+  <si>
+    <t>47,23%</t>
+  </si>
+  <si>
+    <t>43,62%</t>
+  </si>
+  <si>
+    <t>42,46%</t>
+  </si>
+  <si>
+    <t>44,84%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>42,73%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>44,52%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>39,65%</t>
+  </si>
+  <si>
+    <t>Población según el tipo de ejercicio físico que realizan en su tiempo libre en 2023 (Tasa respuesta: 99,71%)</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>42,05%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>45,68%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>40,1%</t>
+  </si>
+  <si>
+    <t>50,79%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>54,76%</t>
+  </si>
+  <si>
+    <t>60,9%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>63,8%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>59,27%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
   </si>
   <si>
     <t>5,91%</t>
   </si>
   <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>39,53%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>41,84%</t>
-  </si>
-  <si>
-    <t>47,22%</t>
-  </si>
-  <si>
-    <t>44,87%</t>
-  </si>
-  <si>
-    <t>50,01%</t>
-  </si>
-  <si>
-    <t>43,25%</t>
-  </si>
-  <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>45,0%</t>
-  </si>
-  <si>
-    <t>40,52%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>42,95%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>45,8%</t>
-  </si>
-  <si>
-    <t>41,92%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>43,71%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>42,87%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>52,47%</t>
+  </si>
+  <si>
+    <t>49,27%</t>
+  </si>
+  <si>
+    <t>59,84%</t>
+  </si>
+  <si>
+    <t>47,77%</t>
+  </si>
+  <si>
+    <t>45,34%</t>
+  </si>
+  <si>
+    <t>52,15%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>46,7%</t>
+  </si>
+  <si>
+    <t>44,59%</t>
+  </si>
+  <si>
+    <t>51,16%</t>
+  </si>
+  <si>
+    <t>45,19%</t>
+  </si>
+  <si>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
   </si>
   <si>
     <t>23,18%</t>
   </si>
   <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>44,34%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
-  </si>
-  <si>
-    <t>48,64%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>52,37%</t>
-  </si>
-  <si>
-    <t>45,91%</t>
-  </si>
-  <si>
-    <t>49,08%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>38,88%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>42,04%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>43,9%</t>
-  </si>
-  <si>
-    <t>46,43%</t>
-  </si>
-  <si>
-    <t>44,67%</t>
-  </si>
-  <si>
-    <t>48,09%</t>
-  </si>
-  <si>
-    <t>44,26%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>45,57%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
-  </si>
-  <si>
-    <t>46,13%</t>
-  </si>
-  <si>
-    <t>44,43%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>42,4%</t>
-  </si>
-  <si>
-    <t>44,88%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tipo de ejercicio físico que realizan en su tiempo libre en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>66,21%</t>
-  </si>
-  <si>
-    <t>62,91%</t>
-  </si>
-  <si>
-    <t>69,19%</t>
-  </si>
-  <si>
-    <t>59,66%</t>
-  </si>
-  <si>
-    <t>56,96%</t>
-  </si>
-  <si>
-    <t>62,52%</t>
-  </si>
-  <si>
-    <t>62,42%</t>
-  </si>
-  <si>
-    <t>60,17%</t>
-  </si>
-  <si>
-    <t>64,38%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>39,06%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>45,99%</t>
-  </si>
-  <si>
-    <t>43,52%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>60,42%</t>
-  </si>
-  <si>
-    <t>57,92%</t>
-  </si>
-  <si>
-    <t>62,82%</t>
-  </si>
-  <si>
-    <t>52,81%</t>
-  </si>
-  <si>
-    <t>51,19%</t>
-  </si>
-  <si>
-    <t>54,47%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>45,41%</t>
-  </si>
-  <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>50,08%</t>
-  </si>
-  <si>
-    <t>63,65%</t>
-  </si>
-  <si>
-    <t>58,65%</t>
-  </si>
-  <si>
-    <t>68,33%</t>
-  </si>
-  <si>
-    <t>54,31%</t>
-  </si>
-  <si>
-    <t>51,03%</t>
-  </si>
-  <si>
-    <t>58,01%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
   </si>
   <si>
     <t>11,14%</t>
   </si>
   <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>51,67%</t>
-  </si>
-  <si>
-    <t>49,9%</t>
-  </si>
-  <si>
-    <t>53,44%</t>
-  </si>
-  <si>
-    <t>60,55%</t>
-  </si>
-  <si>
-    <t>58,93%</t>
-  </si>
-  <si>
-    <t>62,18%</t>
-  </si>
-  <si>
-    <t>56,2%</t>
-  </si>
-  <si>
-    <t>54,86%</t>
-  </si>
-  <si>
-    <t>57,39%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>Población según el tipo de ejercicio físico que realizan en su tiempo libre en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>43,14%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>46,76%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>42,67%</t>
-  </si>
-  <si>
-    <t>41,15%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>43,6%</t>
-  </si>
-  <si>
-    <t>47,03%</t>
-  </si>
-  <si>
-    <t>43,3%</t>
-  </si>
-  <si>
-    <t>50,3%</t>
-  </si>
-  <si>
-    <t>56,39%</t>
-  </si>
-  <si>
-    <t>53,21%</t>
-  </si>
-  <si>
-    <t>60,04%</t>
-  </si>
-  <si>
-    <t>52,35%</t>
-  </si>
-  <si>
-    <t>49,92%</t>
-  </si>
-  <si>
-    <t>54,91%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>43,83%</t>
-  </si>
-  <si>
-    <t>47,09%</t>
-  </si>
-  <si>
-    <t>45,03%</t>
-  </si>
-  <si>
-    <t>49,39%</t>
-  </si>
-  <si>
-    <t>44,31%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>39,86%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>41,99%</t>
-  </si>
-  <si>
-    <t>35,84%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>37,45%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
     <t>14,1%</t>
   </si>
   <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>44,1%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>45,87%</t>
-  </si>
-  <si>
-    <t>54,98%</t>
-  </si>
-  <si>
-    <t>41,7%</t>
-  </si>
-  <si>
-    <t>48,04%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>41,66%</t>
-  </si>
-  <si>
-    <t>39,99%</t>
-  </si>
-  <si>
-    <t>45,49%</t>
-  </si>
-  <si>
-    <t>43,89%</t>
-  </si>
-  <si>
-    <t>47,18%</t>
-  </si>
-  <si>
-    <t>43,62%</t>
-  </si>
-  <si>
-    <t>44,84%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>42,73%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>44,39%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>Población según el tipo de ejercicio físico que realizan en su tiempo libre en 2023 (Tasa respuesta: 99,71%)</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>42,05%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>46,39%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>50,79%</t>
-  </si>
-  <si>
-    <t>46,46%</t>
-  </si>
-  <si>
-    <t>54,65%</t>
-  </si>
-  <si>
-    <t>60,9%</t>
-  </si>
-  <si>
-    <t>58,2%</t>
-  </si>
-  <si>
-    <t>63,8%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>54,45%</t>
-  </si>
-  <si>
-    <t>59,19%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>42,87%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>47,98%</t>
-  </si>
-  <si>
-    <t>52,47%</t>
-  </si>
-  <si>
-    <t>49,3%</t>
-  </si>
-  <si>
-    <t>59,96%</t>
-  </si>
-  <si>
-    <t>47,77%</t>
-  </si>
-  <si>
-    <t>45,2%</t>
-  </si>
-  <si>
-    <t>52,0%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>46,2%</t>
-  </si>
-  <si>
-    <t>47,95%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>51,8%</t>
-  </si>
-  <si>
-    <t>45,19%</t>
-  </si>
-  <si>
-    <t>42,77%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
     <t>6,28%</t>
   </si>
   <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
   </si>
   <si>
     <t>9,23%</t>
   </si>
   <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
   </si>
   <si>
     <t>42,62%</t>
   </si>
   <si>
-    <t>40,55%</t>
-  </si>
-  <si>
-    <t>45,7%</t>
-  </si>
-  <si>
-    <t>45,58%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>45,34%</t>
-  </si>
-  <si>
-    <t>43,78%</t>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>45,9%</t>
+  </si>
+  <si>
+    <t>45,55%</t>
+  </si>
+  <si>
+    <t>54,27%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>48,75%</t>
   </si>
   <si>
     <t>32,55%</t>
   </si>
   <si>
-    <t>30,44%</t>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
   </si>
   <si>
     <t>39,04%</t>
   </si>
   <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>40,85%</t>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
   </si>
   <si>
     <t>35,99%</t>
   </si>
   <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
   </si>
 </sst>
 </file>
@@ -2151,7 +2157,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAB0BC3D-58A4-4D7E-9547-7C68FC646077}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E4ADB0C-D9DC-41FC-AE1E-FFAB8100626F}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2670,7 +2676,7 @@
         <v>76</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>77</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2685,13 +2691,13 @@
         <v>676612</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H12" s="7">
         <v>650</v>
@@ -2700,13 +2706,13 @@
         <v>677355</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M12" s="7">
         <v>1305</v>
@@ -2715,13 +2721,13 @@
         <v>1353967</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2777,7 +2783,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2789,13 +2795,13 @@
         <v>50272</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>15</v>
@@ -2804,13 +2810,13 @@
         <v>16301</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>63</v>
@@ -2819,13 +2825,13 @@
         <v>66572</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2840,13 +2846,13 @@
         <v>107025</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H15" s="7">
         <v>45</v>
@@ -2855,13 +2861,13 @@
         <v>45969</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M15" s="7">
         <v>151</v>
@@ -2870,13 +2876,13 @@
         <v>152994</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2891,13 +2897,13 @@
         <v>242479</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>211</v>
@@ -2906,10 +2912,10 @@
         <v>222475</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>110</v>
@@ -2924,10 +2930,10 @@
         <v>111</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2942,13 +2948,13 @@
         <v>147042</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H17" s="7">
         <v>171</v>
@@ -2957,13 +2963,13 @@
         <v>181169</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M17" s="7">
         <v>306</v>
@@ -2972,13 +2978,13 @@
         <v>328211</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3046,13 +3052,13 @@
         <v>148019</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H19" s="7">
         <v>56</v>
@@ -3061,13 +3067,13 @@
         <v>54994</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M19" s="7">
         <v>202</v>
@@ -3076,13 +3082,13 @@
         <v>203012</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3097,13 +3103,13 @@
         <v>398014</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H20" s="7">
         <v>192</v>
@@ -3112,13 +3118,13 @@
         <v>191642</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M20" s="7">
         <v>582</v>
@@ -3127,13 +3133,13 @@
         <v>589656</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3148,13 +3154,13 @@
         <v>1358403</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H21" s="7">
         <v>1517</v>
@@ -3163,13 +3169,13 @@
         <v>1541061</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M21" s="7">
         <v>2862</v>
@@ -3178,13 +3184,13 @@
         <v>2899464</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3199,13 +3205,13 @@
         <v>1327127</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H22" s="7">
         <v>1473</v>
@@ -3214,13 +3220,13 @@
         <v>1531062</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M22" s="7">
         <v>2764</v>
@@ -3229,13 +3235,13 @@
         <v>2858190</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3291,7 +3297,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -3310,7 +3316,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAC1A01F-D1AC-4685-B165-FE57D93791B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AB5231D-1AD3-497A-9E87-F752446DCA03}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3327,7 +3333,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3434,13 +3440,13 @@
         <v>24196</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>161</v>
+        <v>124</v>
       </c>
       <c r="H4" s="7">
         <v>10</v>
@@ -3449,13 +3455,13 @@
         <v>11541</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>164</v>
+        <v>55</v>
       </c>
       <c r="M4" s="7">
         <v>32</v>
@@ -3506,7 +3512,7 @@
         <v>172</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="M5" s="7">
         <v>92</v>
@@ -3515,13 +3521,13 @@
         <v>95710</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3536,13 +3542,13 @@
         <v>644695</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="H6" s="7">
         <v>742</v>
@@ -3551,28 +3557,28 @@
         <v>797537</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="M6" s="7">
         <v>1338</v>
       </c>
       <c r="N6" s="7">
-        <v>1442231</v>
+        <v>1442232</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3587,13 +3593,13 @@
         <v>251718</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="H7" s="7">
         <v>454</v>
@@ -3602,13 +3608,13 @@
         <v>485048</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="M7" s="7">
         <v>691</v>
@@ -3617,13 +3623,13 @@
         <v>736766</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3665,7 +3671,7 @@
         <v>2153</v>
       </c>
       <c r="N8" s="7">
-        <v>2310444</v>
+        <v>2310445</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>49</v>
@@ -3691,13 +3697,13 @@
         <v>206660</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="H9" s="7">
         <v>34</v>
@@ -3706,13 +3712,13 @@
         <v>35535</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="M9" s="7">
         <v>237</v>
@@ -3721,13 +3727,13 @@
         <v>242196</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3742,13 +3748,13 @@
         <v>403673</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="H10" s="7">
         <v>123</v>
@@ -3757,13 +3763,13 @@
         <v>129313</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="M10" s="7">
         <v>509</v>
@@ -3772,13 +3778,13 @@
         <v>532987</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3793,13 +3799,13 @@
         <v>902828</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="H11" s="7">
         <v>987</v>
@@ -3808,13 +3814,13 @@
         <v>1062091</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="M11" s="7">
         <v>1836</v>
@@ -3823,13 +3829,13 @@
         <v>1964918</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3844,13 +3850,13 @@
         <v>449935</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="H12" s="7">
         <v>491</v>
@@ -3859,13 +3865,13 @@
         <v>530864</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="M12" s="7">
         <v>908</v>
@@ -3874,13 +3880,13 @@
         <v>980798</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3936,7 +3942,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -3948,13 +3954,13 @@
         <v>55501</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="H14" s="7">
         <v>20</v>
@@ -3963,13 +3969,13 @@
         <v>23115</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="M14" s="7">
         <v>75</v>
@@ -3978,13 +3984,13 @@
         <v>78616</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3999,13 +4005,13 @@
         <v>141483</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="H15" s="7">
         <v>52</v>
@@ -4014,13 +4020,13 @@
         <v>60713</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="M15" s="7">
         <v>176</v>
@@ -4029,13 +4035,13 @@
         <v>202196</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4050,13 +4056,13 @@
         <v>218486</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="H16" s="7">
         <v>261</v>
@@ -4065,13 +4071,13 @@
         <v>291939</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="M16" s="7">
         <v>460</v>
@@ -4080,13 +4086,13 @@
         <v>510425</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4101,13 +4107,13 @@
         <v>65711</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="H17" s="7">
         <v>79</v>
@@ -4116,13 +4122,13 @@
         <v>82864</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="M17" s="7">
         <v>139</v>
@@ -4131,13 +4137,13 @@
         <v>148575</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4205,13 +4211,13 @@
         <v>286358</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="H19" s="7">
         <v>64</v>
@@ -4220,13 +4226,13 @@
         <v>70191</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="M19" s="7">
         <v>344</v>
@@ -4235,10 +4241,10 @@
         <v>356548</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>273</v>
@@ -4259,10 +4265,10 @@
         <v>274</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="H20" s="7">
         <v>215</v>
@@ -4271,10 +4277,10 @@
         <v>232600</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>278</v>
@@ -4289,10 +4295,10 @@
         <v>279</v>
       </c>
       <c r="P20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4307,13 +4313,13 @@
         <v>1766009</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="H21" s="7">
         <v>1990</v>
@@ -4322,13 +4328,13 @@
         <v>2151566</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="M21" s="7">
         <v>3634</v>
@@ -4337,13 +4343,13 @@
         <v>3917575</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4358,13 +4364,13 @@
         <v>767364</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="H22" s="7">
         <v>1024</v>
@@ -4373,13 +4379,13 @@
         <v>1098775</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="M22" s="7">
         <v>1738</v>
@@ -4388,13 +4394,13 @@
         <v>1866139</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4450,7 +4456,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -4469,7 +4475,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8422B706-D5BF-44B8-9DCE-A4C283702945}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50A22917-FDCD-417F-8BBA-1FBA2FC4E9E5}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4486,7 +4492,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4593,13 +4599,13 @@
         <v>17541</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>303</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -4611,10 +4617,10 @@
         <v>16</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="M4" s="7">
         <v>22</v>
@@ -4623,13 +4629,13 @@
         <v>22356</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4644,13 +4650,13 @@
         <v>56599</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>310</v>
+        <v>277</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="H5" s="7">
         <v>32</v>
@@ -4659,13 +4665,13 @@
         <v>34719</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="M5" s="7">
         <v>86</v>
@@ -4674,13 +4680,13 @@
         <v>91318</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>173</v>
+        <v>313</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4695,13 +4701,13 @@
         <v>325429</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>319</v>
       </c>
       <c r="H6" s="7">
         <v>364</v>
@@ -4710,13 +4716,13 @@
         <v>394269</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>322</v>
       </c>
       <c r="M6" s="7">
         <v>696</v>
@@ -4725,13 +4731,13 @@
         <v>719698</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4746,13 +4752,13 @@
         <v>354778</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>327</v>
+        <v>156</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="H7" s="7">
         <v>491</v>
@@ -4761,13 +4767,13 @@
         <v>560857</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="M7" s="7">
         <v>850</v>
@@ -4776,13 +4782,13 @@
         <v>915635</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4850,13 +4856,13 @@
         <v>164361</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="H9" s="7">
         <v>50</v>
@@ -4865,13 +4871,13 @@
         <v>48866</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>308</v>
+        <v>336</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="M9" s="7">
         <v>205</v>
@@ -4880,13 +4886,13 @@
         <v>213227</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4901,13 +4907,13 @@
         <v>382971</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>345</v>
       </c>
       <c r="H10" s="7">
         <v>205</v>
@@ -4916,13 +4922,13 @@
         <v>210548</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>238</v>
+        <v>344</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>347</v>
       </c>
       <c r="M10" s="7">
         <v>569</v>
@@ -4931,13 +4937,13 @@
         <v>593518</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4952,13 +4958,13 @@
         <v>864776</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>353</v>
       </c>
       <c r="H11" s="7">
         <v>901</v>
@@ -4967,13 +4973,13 @@
         <v>936294</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>356</v>
       </c>
       <c r="M11" s="7">
         <v>1716</v>
@@ -4982,13 +4988,13 @@
         <v>1801070</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5003,13 +5009,13 @@
         <v>664277</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>362</v>
       </c>
       <c r="H12" s="7">
         <v>752</v>
@@ -5018,13 +5024,13 @@
         <v>792592</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>365</v>
       </c>
       <c r="M12" s="7">
         <v>1370</v>
@@ -5033,13 +5039,13 @@
         <v>1456869</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5095,7 +5101,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -5107,13 +5113,13 @@
         <v>59709</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>371</v>
       </c>
       <c r="H14" s="7">
         <v>20</v>
@@ -5122,13 +5128,13 @@
         <v>21188</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>372</v>
+        <v>124</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>374</v>
+        <v>273</v>
       </c>
       <c r="M14" s="7">
         <v>75</v>
@@ -5137,13 +5143,13 @@
         <v>80896</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5158,13 +5164,13 @@
         <v>144587</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="H15" s="7">
         <v>92</v>
@@ -5173,13 +5179,13 @@
         <v>95956</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="M15" s="7">
         <v>225</v>
@@ -5188,13 +5194,13 @@
         <v>240543</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5209,13 +5215,13 @@
         <v>217066</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="H16" s="7">
         <v>266</v>
@@ -5224,13 +5230,13 @@
         <v>276110</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="M16" s="7">
         <v>459</v>
@@ -5239,13 +5245,13 @@
         <v>493176</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>77</v>
+        <v>389</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5260,13 +5266,13 @@
         <v>125524</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="H17" s="7">
         <v>148</v>
@@ -5275,13 +5281,13 @@
         <v>155886</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="M17" s="7">
         <v>268</v>
@@ -5290,13 +5296,13 @@
         <v>281410</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>402</v>
+        <v>375</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5364,13 +5370,13 @@
         <v>241610</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="H19" s="7">
         <v>75</v>
@@ -5379,13 +5385,13 @@
         <v>74870</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="M19" s="7">
         <v>302</v>
@@ -5394,13 +5400,13 @@
         <v>316480</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>272</v>
+        <v>407</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5415,13 +5421,13 @@
         <v>584158</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="H20" s="7">
         <v>329</v>
@@ -5430,13 +5436,13 @@
         <v>341222</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="M20" s="7">
         <v>880</v>
@@ -5445,13 +5451,13 @@
         <v>925380</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5466,13 +5472,13 @@
         <v>1407272</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>325</v>
+        <v>419</v>
       </c>
       <c r="H21" s="7">
         <v>1531</v>
@@ -5481,13 +5487,13 @@
         <v>1606673</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>422</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>424</v>
       </c>
       <c r="M21" s="7">
         <v>2871</v>
@@ -5496,13 +5502,13 @@
         <v>3013945</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>425</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5517,13 +5523,13 @@
         <v>1144579</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>428</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>429</v>
       </c>
       <c r="H22" s="7">
         <v>1391</v>
@@ -5532,13 +5538,13 @@
         <v>1509335</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>431</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>432</v>
       </c>
       <c r="M22" s="7">
         <v>2488</v>
@@ -5547,13 +5553,13 @@
         <v>2653914</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>434</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5609,7 +5615,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -5628,7 +5634,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CC8657B-7389-429E-A58F-81547C39D9EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0510B820-A3F6-4F02-9C74-2B61B65915BE}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5645,7 +5651,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5752,13 +5758,13 @@
         <v>16454</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>438</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>439</v>
       </c>
       <c r="H4" s="7">
         <v>34</v>
@@ -5767,7 +5773,7 @@
         <v>21183</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>373</v>
+        <v>439</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>440</v>
@@ -5782,13 +5788,13 @@
         <v>37637</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>443</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5803,13 +5809,13 @@
         <v>22005</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>445</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>447</v>
       </c>
       <c r="H5" s="7">
         <v>24</v>
@@ -5818,13 +5824,13 @@
         <v>13919</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>448</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>449</v>
       </c>
       <c r="M5" s="7">
         <v>47</v>
@@ -5833,13 +5839,13 @@
         <v>35923</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5854,13 +5860,13 @@
         <v>226192</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>452</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>454</v>
       </c>
       <c r="H6" s="7">
         <v>522</v>
@@ -5869,13 +5875,13 @@
         <v>289026</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>455</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>368</v>
       </c>
       <c r="M6" s="7">
         <v>828</v>
@@ -5884,13 +5890,13 @@
         <v>515218</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>457</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>458</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5905,13 +5911,13 @@
         <v>273202</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>461</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>462</v>
       </c>
       <c r="H7" s="7">
         <v>840</v>
@@ -5920,13 +5926,13 @@
         <v>504938</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>464</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>465</v>
       </c>
       <c r="M7" s="7">
         <v>1180</v>
@@ -5935,13 +5941,13 @@
         <v>778139</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>466</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6009,13 +6015,13 @@
         <v>275765</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>281</v>
+        <v>467</v>
       </c>
       <c r="F9" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>469</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>470</v>
       </c>
       <c r="H9" s="7">
         <v>177</v>
@@ -6024,13 +6030,13 @@
         <v>145657</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>471</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>473</v>
       </c>
       <c r="M9" s="7">
         <v>380</v>
@@ -6039,13 +6045,13 @@
         <v>421423</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>474</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6060,13 +6066,13 @@
         <v>291531</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>477</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>479</v>
       </c>
       <c r="H10" s="7">
         <v>151</v>
@@ -6075,10 +6081,10 @@
         <v>132838</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>64</v>
+        <v>478</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>314</v>
+        <v>479</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>480</v>
@@ -6093,10 +6099,10 @@
         <v>481</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>266</v>
+        <v>482</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6111,13 +6117,13 @@
         <v>924627</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H11" s="7">
         <v>1528</v>
@@ -6126,13 +6132,13 @@
         <v>1179067</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="M11" s="7">
         <v>2435</v>
@@ -6141,13 +6147,13 @@
         <v>2103694</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6162,13 +6168,13 @@
         <v>665019</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H12" s="7">
         <v>1061</v>
@@ -6177,13 +6183,13 @@
         <v>789412</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="M12" s="7">
         <v>1719</v>
@@ -6192,13 +6198,13 @@
         <v>1454431</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6254,7 +6260,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -6266,13 +6272,13 @@
         <v>121690</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H14" s="7">
         <v>118</v>
@@ -6281,13 +6287,13 @@
         <v>94951</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>66</v>
+        <v>506</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="M14" s="7">
         <v>228</v>
@@ -6296,13 +6302,13 @@
         <v>216641</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6317,13 +6323,13 @@
         <v>108731</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="H15" s="7">
         <v>104</v>
@@ -6332,13 +6338,13 @@
         <v>91295</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="M15" s="7">
         <v>200</v>
@@ -6347,13 +6353,13 @@
         <v>200026</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>62</v>
+        <v>519</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6368,13 +6374,13 @@
         <v>283980</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="H16" s="7">
         <v>520</v>
@@ -6383,13 +6389,13 @@
         <v>342102</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>520</v>
+        <v>155</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="M16" s="7">
         <v>838</v>
@@ -6398,13 +6404,13 @@
         <v>626082</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>524</v>
+        <v>429</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>35</v>
+        <v>526</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6419,13 +6425,13 @@
         <v>157519</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="H17" s="7">
         <v>261</v>
@@ -6434,13 +6440,13 @@
         <v>185136</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="M17" s="7">
         <v>417</v>
@@ -6449,13 +6455,13 @@
         <v>342655</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6523,13 +6529,13 @@
         <v>413909</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>535</v>
+        <v>66</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H19" s="7">
         <v>329</v>
@@ -6538,13 +6544,13 @@
         <v>261791</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="M19" s="7">
         <v>660</v>
@@ -6553,13 +6559,13 @@
         <v>675701</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6574,13 +6580,13 @@
         <v>422266</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H20" s="7">
         <v>279</v>
@@ -6589,13 +6595,13 @@
         <v>238051</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="M20" s="7">
         <v>618</v>
@@ -6604,13 +6610,13 @@
         <v>660318</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6625,13 +6631,13 @@
         <v>1434799</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H21" s="7">
         <v>2570</v>
@@ -6640,13 +6646,13 @@
         <v>1810196</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="M21" s="7">
         <v>4101</v>
@@ -6655,13 +6661,13 @@
         <v>3244994</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>557</v>
+        <v>491</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>558</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>394</v>
+        <v>559</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6676,13 +6682,13 @@
         <v>1095740</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>367</v>
+        <v>562</v>
       </c>
       <c r="H22" s="7">
         <v>2162</v>
@@ -6691,13 +6697,13 @@
         <v>1479486</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="M22" s="7">
         <v>3316</v>
@@ -6706,13 +6712,13 @@
         <v>2575225</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6768,7 +6774,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P34A-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P34A-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{76707893-D448-4364-A01D-568E9BC53F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{98A8BD54-E6D4-4B37-94C8-AFC5A65278B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{38666F2C-FD9F-4E75-ABA6-BE0B2F45A57B}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{ABD220A2-4B89-453C-86F3-51C72D3BFD03}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="567">
   <si>
     <t>Población según el tipo de ejercicio físico que realizan en su tiempo libre en 2007 (Tasa respuesta: 98,45%)</t>
   </si>
@@ -1349,403 +1349,397 @@
     <t>Población según el tipo de ejercicio físico que realizan en su tiempo libre en 2023 (Tasa respuesta: 99,71%)</t>
   </si>
   <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
   </si>
   <si>
     <t>1,82%</t>
   </si>
   <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>42,05%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>45,68%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>40,1%</t>
-  </si>
-  <si>
-    <t>50,79%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>54,76%</t>
-  </si>
-  <si>
-    <t>60,9%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>63,8%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>59,27%</t>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>37,45%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>51,27%</t>
+  </si>
+  <si>
+    <t>47,51%</t>
+  </si>
+  <si>
+    <t>55,31%</t>
+  </si>
+  <si>
+    <t>60,71%</t>
+  </si>
+  <si>
+    <t>58,25%</t>
+  </si>
+  <si>
+    <t>56,88%</t>
+  </si>
+  <si>
+    <t>54,59%</t>
+  </si>
+  <si>
+    <t>59,14%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>47,18%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>61,2%</t>
+  </si>
+  <si>
+    <t>54,93%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>67,04%</t>
+  </si>
+  <si>
+    <t>51,01%</t>
+  </si>
+  <si>
+    <t>45,45%</t>
+  </si>
+  <si>
+    <t>59,77%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
   </si>
   <si>
     <t>12,79%</t>
   </si>
   <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>42,87%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>47,05%</t>
-  </si>
-  <si>
-    <t>52,47%</t>
-  </si>
-  <si>
-    <t>49,27%</t>
-  </si>
-  <si>
-    <t>59,84%</t>
-  </si>
-  <si>
-    <t>47,77%</t>
-  </si>
-  <si>
-    <t>45,34%</t>
-  </si>
-  <si>
-    <t>52,15%</t>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>42,43%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>47,73%</t>
+  </si>
+  <si>
+    <t>44,33%</t>
+  </si>
+  <si>
+    <t>50,97%</t>
+  </si>
+  <si>
+    <t>45,11%</t>
+  </si>
+  <si>
+    <t>42,47%</t>
+  </si>
+  <si>
+    <t>48,16%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>40,63%</t>
+  </si>
+  <si>
+    <t>59,56%</t>
+  </si>
+  <si>
+    <t>61,63%</t>
+  </si>
+  <si>
+    <t>47,58%</t>
+  </si>
+  <si>
+    <t>43,97%</t>
+  </si>
+  <si>
+    <t>54,83%</t>
   </si>
   <si>
     <t>30,83%</t>
   </si>
   <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>46,7%</t>
-  </si>
-  <si>
-    <t>44,59%</t>
-  </si>
-  <si>
-    <t>51,16%</t>
-  </si>
-  <si>
-    <t>45,19%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>45,9%</t>
-  </si>
-  <si>
-    <t>45,55%</t>
-  </si>
-  <si>
-    <t>54,27%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>48,75%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>39,04%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>35,99%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>41,25%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
   </si>
 </sst>
 </file>
@@ -2157,7 +2151,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E4ADB0C-D9DC-41FC-AE1E-FFAB8100626F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05A58BAA-4F7F-42FD-8A31-E8A34A6CBE2F}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3316,7 +3310,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AB5231D-1AD3-497A-9E87-F752446DCA03}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A1D85F4-5012-4F2F-9AB3-D44051F2C90E}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4185,7 +4179,7 @@
         <v>850</v>
       </c>
       <c r="N18" s="7">
-        <v>939812</v>
+        <v>939813</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>49</v>
@@ -4475,7 +4469,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50A22917-FDCD-417F-8BBA-1FBA2FC4E9E5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23D0D632-B9AE-4A89-AD51-35ACC62C808A}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5191,7 +5185,7 @@
         <v>225</v>
       </c>
       <c r="N15" s="7">
-        <v>240543</v>
+        <v>240544</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>380</v>
@@ -5242,7 +5236,7 @@
         <v>459</v>
       </c>
       <c r="N16" s="7">
-        <v>493176</v>
+        <v>493177</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>389</v>
@@ -5344,7 +5338,7 @@
         <v>1027</v>
       </c>
       <c r="N18" s="7">
-        <v>1096026</v>
+        <v>1096027</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>49</v>
@@ -5634,7 +5628,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0510B820-A3F6-4F02-9C74-2B61B65915BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69444082-9A23-49CF-9E7F-C7CB69C5B1D5}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5755,7 +5749,7 @@
         <v>18</v>
       </c>
       <c r="D4" s="7">
-        <v>16454</v>
+        <v>14839</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>436</v>
@@ -5770,7 +5764,7 @@
         <v>34</v>
       </c>
       <c r="I4" s="7">
-        <v>21183</v>
+        <v>19112</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>439</v>
@@ -5785,13 +5779,13 @@
         <v>52</v>
       </c>
       <c r="N4" s="7">
-        <v>37637</v>
+        <v>33951</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>130</v>
+        <v>442</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>442</v>
+        <v>196</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>443</v>
@@ -5806,46 +5800,46 @@
         <v>23</v>
       </c>
       <c r="D5" s="7">
-        <v>22005</v>
+        <v>20487</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>444</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>23</v>
+        <v>445</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H5" s="7">
         <v>24</v>
       </c>
       <c r="I5" s="7">
-        <v>13919</v>
+        <v>12386</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M5" s="7">
         <v>47</v>
       </c>
       <c r="N5" s="7">
-        <v>35923</v>
+        <v>32873</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>306</v>
+        <v>451</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5857,46 +5851,46 @@
         <v>306</v>
       </c>
       <c r="D6" s="7">
-        <v>226192</v>
+        <v>213899</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>452</v>
+        <v>247</v>
       </c>
       <c r="H6" s="7">
         <v>522</v>
       </c>
       <c r="I6" s="7">
-        <v>289026</v>
+        <v>263009</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>454</v>
+        <v>120</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M6" s="7">
         <v>828</v>
       </c>
       <c r="N6" s="7">
-        <v>515218</v>
+        <v>476907</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5908,46 +5902,46 @@
         <v>340</v>
       </c>
       <c r="D7" s="7">
-        <v>273202</v>
+        <v>262206</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H7" s="7">
         <v>840</v>
       </c>
       <c r="I7" s="7">
-        <v>504938</v>
+        <v>455086</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>464</v>
+        <v>250</v>
       </c>
       <c r="M7" s="7">
         <v>1180</v>
       </c>
       <c r="N7" s="7">
-        <v>778139</v>
+        <v>717292</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>465</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>388</v>
+        <v>466</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5959,7 +5953,7 @@
         <v>687</v>
       </c>
       <c r="D8" s="7">
-        <v>537853</v>
+        <v>511431</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>49</v>
@@ -5974,7 +5968,7 @@
         <v>1420</v>
       </c>
       <c r="I8" s="7">
-        <v>829066</v>
+        <v>749593</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>49</v>
@@ -5989,7 +5983,7 @@
         <v>2107</v>
       </c>
       <c r="N8" s="7">
-        <v>1366918</v>
+        <v>1261024</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>49</v>
@@ -6012,37 +6006,37 @@
         <v>203</v>
       </c>
       <c r="D9" s="7">
-        <v>275765</v>
+        <v>269786</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H9" s="7">
         <v>177</v>
       </c>
       <c r="I9" s="7">
-        <v>145657</v>
+        <v>131124</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>445</v>
+        <v>471</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>470</v>
+        <v>313</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>471</v>
+        <v>63</v>
       </c>
       <c r="M9" s="7">
         <v>380</v>
       </c>
       <c r="N9" s="7">
-        <v>421423</v>
+        <v>400910</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>472</v>
@@ -6063,7 +6057,7 @@
         <v>220</v>
       </c>
       <c r="D10" s="7">
-        <v>291531</v>
+        <v>289444</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>475</v>
@@ -6078,7 +6072,7 @@
         <v>151</v>
       </c>
       <c r="I10" s="7">
-        <v>132838</v>
+        <v>120287</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>478</v>
@@ -6093,7 +6087,7 @@
         <v>371</v>
       </c>
       <c r="N10" s="7">
-        <v>424369</v>
+        <v>409731</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>481</v>
@@ -6114,7 +6108,7 @@
         <v>907</v>
       </c>
       <c r="D11" s="7">
-        <v>924627</v>
+        <v>1078408</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>484</v>
@@ -6129,7 +6123,7 @@
         <v>1528</v>
       </c>
       <c r="I11" s="7">
-        <v>1179067</v>
+        <v>1227975</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>487</v>
@@ -6144,7 +6138,7 @@
         <v>2435</v>
       </c>
       <c r="N11" s="7">
-        <v>2103694</v>
+        <v>2306382</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>490</v>
@@ -6165,7 +6159,7 @@
         <v>658</v>
       </c>
       <c r="D12" s="7">
-        <v>665019</v>
+        <v>647976</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>493</v>
@@ -6180,7 +6174,7 @@
         <v>1061</v>
       </c>
       <c r="I12" s="7">
-        <v>789412</v>
+        <v>756204</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>496</v>
@@ -6195,7 +6189,7 @@
         <v>1719</v>
       </c>
       <c r="N12" s="7">
-        <v>1454431</v>
+        <v>1404179</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>499</v>
@@ -6216,7 +6210,7 @@
         <v>1988</v>
       </c>
       <c r="D13" s="7">
-        <v>2156942</v>
+        <v>2285614</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>49</v>
@@ -6231,7 +6225,7 @@
         <v>2917</v>
       </c>
       <c r="I13" s="7">
-        <v>2246974</v>
+        <v>2235589</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>49</v>
@@ -6246,7 +6240,7 @@
         <v>4905</v>
       </c>
       <c r="N13" s="7">
-        <v>4403916</v>
+        <v>4521202</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>49</v>
@@ -6269,7 +6263,7 @@
         <v>110</v>
       </c>
       <c r="D14" s="7">
-        <v>121690</v>
+        <v>116891</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>502</v>
@@ -6284,7 +6278,7 @@
         <v>118</v>
       </c>
       <c r="I14" s="7">
-        <v>94951</v>
+        <v>87988</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>505</v>
@@ -6299,7 +6293,7 @@
         <v>228</v>
       </c>
       <c r="N14" s="7">
-        <v>216641</v>
+        <v>204879</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>508</v>
@@ -6320,7 +6314,7 @@
         <v>96</v>
       </c>
       <c r="D15" s="7">
-        <v>108731</v>
+        <v>103585</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>511</v>
@@ -6335,7 +6329,7 @@
         <v>104</v>
       </c>
       <c r="I15" s="7">
-        <v>91295</v>
+        <v>84401</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>514</v>
@@ -6350,7 +6344,7 @@
         <v>200</v>
       </c>
       <c r="N15" s="7">
-        <v>200026</v>
+        <v>187986</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>517</v>
@@ -6371,7 +6365,7 @@
         <v>318</v>
       </c>
       <c r="D16" s="7">
-        <v>283980</v>
+        <v>273903</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>520</v>
@@ -6380,16 +6374,16 @@
         <v>521</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>522</v>
+        <v>461</v>
       </c>
       <c r="H16" s="7">
         <v>520</v>
       </c>
       <c r="I16" s="7">
-        <v>342102</v>
+        <v>315042</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>155</v>
+        <v>522</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>523</v>
@@ -6401,16 +6395,16 @@
         <v>838</v>
       </c>
       <c r="N16" s="7">
-        <v>626082</v>
+        <v>588945</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>525</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>429</v>
+        <v>526</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6422,10 +6416,10 @@
         <v>156</v>
       </c>
       <c r="D17" s="7">
-        <v>157519</v>
+        <v>151195</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>527</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>528</v>
@@ -6437,7 +6431,7 @@
         <v>261</v>
       </c>
       <c r="I17" s="7">
-        <v>185136</v>
+        <v>172655</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>530</v>
@@ -6452,7 +6446,7 @@
         <v>417</v>
       </c>
       <c r="N17" s="7">
-        <v>342655</v>
+        <v>323851</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>533</v>
@@ -6473,7 +6467,7 @@
         <v>680</v>
       </c>
       <c r="D18" s="7">
-        <v>671920</v>
+        <v>645574</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>49</v>
@@ -6488,7 +6482,7 @@
         <v>1003</v>
       </c>
       <c r="I18" s="7">
-        <v>713484</v>
+        <v>660086</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>49</v>
@@ -6503,7 +6497,7 @@
         <v>1683</v>
       </c>
       <c r="N18" s="7">
-        <v>1385404</v>
+        <v>1305660</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>49</v>
@@ -6526,46 +6520,46 @@
         <v>331</v>
       </c>
       <c r="D19" s="7">
-        <v>413909</v>
+        <v>401516</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>536</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>66</v>
+        <v>537</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H19" s="7">
         <v>329</v>
       </c>
       <c r="I19" s="7">
-        <v>261791</v>
+        <v>238224</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="M19" s="7">
         <v>660</v>
       </c>
       <c r="N19" s="7">
-        <v>675701</v>
+        <v>639739</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6577,25 +6571,25 @@
         <v>339</v>
       </c>
       <c r="D20" s="7">
-        <v>422266</v>
+        <v>413516</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H20" s="7">
         <v>279</v>
       </c>
       <c r="I20" s="7">
-        <v>238051</v>
+        <v>217074</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>547</v>
+        <v>64</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>548</v>
@@ -6607,7 +6601,7 @@
         <v>618</v>
       </c>
       <c r="N20" s="7">
-        <v>660318</v>
+        <v>630590</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>550</v>
@@ -6616,7 +6610,7 @@
         <v>551</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>552</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6628,46 +6622,46 @@
         <v>1531</v>
       </c>
       <c r="D21" s="7">
-        <v>1434799</v>
+        <v>1566209</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>553</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>554</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>555</v>
       </c>
       <c r="H21" s="7">
         <v>2570</v>
       </c>
       <c r="I21" s="7">
-        <v>1810196</v>
+        <v>1806025</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>490</v>
+        <v>44</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>556</v>
+        <v>420</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="M21" s="7">
         <v>4101</v>
       </c>
       <c r="N21" s="7">
-        <v>3244994</v>
+        <v>3372234</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>491</v>
+        <v>555</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6679,46 +6673,46 @@
         <v>1154</v>
       </c>
       <c r="D22" s="7">
-        <v>1095740</v>
+        <v>1061378</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>560</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>561</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>562</v>
       </c>
       <c r="H22" s="7">
         <v>2162</v>
       </c>
       <c r="I22" s="7">
-        <v>1479486</v>
+        <v>1383945</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>563</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>564</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>565</v>
       </c>
       <c r="M22" s="7">
         <v>3316</v>
       </c>
       <c r="N22" s="7">
-        <v>2575225</v>
+        <v>2445323</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>566</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>567</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6730,7 +6724,7 @@
         <v>3355</v>
       </c>
       <c r="D23" s="7">
-        <v>3366714</v>
+        <v>3442618</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>49</v>
@@ -6745,7 +6739,7 @@
         <v>5340</v>
       </c>
       <c r="I23" s="7">
-        <v>3789524</v>
+        <v>3645268</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>49</v>
@@ -6760,7 +6754,7 @@
         <v>8695</v>
       </c>
       <c r="N23" s="7">
-        <v>7156238</v>
+        <v>7087886</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>49</v>
